--- a/lab6/xlsx6.xlsx
+++ b/lab6/xlsx6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3C15FE-8479-405A-BF79-BEB54DCCBD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDFA28F-9253-45CE-B1E8-026ECBCAAC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -683,7 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,6 +694,23 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,24 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1038,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
@@ -1051,37 +1050,37 @@
     <col min="3" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>0.01</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>-6.8349999999999999E-3</v>
       </c>
       <c r="D2" s="5">
@@ -1096,11 +1095,10 @@
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="34">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="26">
         <v>2</v>
       </c>
       <c r="C3" s="16">
@@ -1118,11 +1116,10 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="34">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="26">
         <v>3</v>
       </c>
       <c r="C4" s="16">
@@ -1140,11 +1137,10 @@
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="34">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="26">
         <v>4</v>
       </c>
       <c r="C5" s="16">
@@ -1162,11 +1158,10 @@
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="44"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="34">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="26">
         <v>5</v>
       </c>
       <c r="C6" s="16">
@@ -1184,11 +1179,10 @@
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="34">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="26">
         <v>6</v>
       </c>
       <c r="C7" s="16">
@@ -1206,11 +1200,10 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="34">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="26">
         <v>7</v>
       </c>
       <c r="C8" s="16">
@@ -1228,11 +1221,10 @@
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="34">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="26">
         <v>8</v>
       </c>
       <c r="C9" s="16">
@@ -1250,11 +1242,10 @@
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="34">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="26">
         <v>9</v>
       </c>
       <c r="C10" s="16">
@@ -1272,11 +1263,10 @@
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="34">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="26">
         <v>10</v>
       </c>
       <c r="C11" s="16">
@@ -1294,11 +1284,10 @@
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="34">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="26">
         <v>11</v>
       </c>
       <c r="C12" s="16">
@@ -1316,11 +1305,10 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="34">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="26">
         <v>12</v>
       </c>
       <c r="C13" s="16">
@@ -1338,11 +1326,10 @@
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="34">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="26">
         <v>13</v>
       </c>
       <c r="C14" s="16">
@@ -1360,11 +1347,10 @@
       <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="34">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="26">
         <v>14</v>
       </c>
       <c r="C15" s="16">
@@ -1382,11 +1368,10 @@
       <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="44"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="34">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="26">
         <v>15</v>
       </c>
       <c r="C16" s="16">
@@ -1404,11 +1389,10 @@
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="34">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="26">
         <v>16</v>
       </c>
       <c r="C17" s="16">
@@ -1426,11 +1410,10 @@
       <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="44"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="34">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="26">
         <v>17</v>
       </c>
       <c r="C18" s="16">
@@ -1448,11 +1431,10 @@
       <c r="G18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="34">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="26">
         <v>18</v>
       </c>
       <c r="C19" s="16">
@@ -1470,11 +1452,10 @@
       <c r="G19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="34">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="26">
         <v>19</v>
       </c>
       <c r="C20" s="16">
@@ -1492,11 +1473,10 @@
       <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="44"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="34">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="26">
         <v>20</v>
       </c>
       <c r="C21" s="16">
@@ -1514,11 +1494,10 @@
       <c r="G21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="34">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="26">
         <v>21</v>
       </c>
       <c r="C22" s="16">
@@ -1536,11 +1515,10 @@
       <c r="G22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="34">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="26">
         <v>22</v>
       </c>
       <c r="C23" s="16">
@@ -1558,11 +1536,10 @@
       <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="34">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="26">
         <v>23</v>
       </c>
       <c r="C24" s="16">
@@ -1580,11 +1557,10 @@
       <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="44"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="34">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="26">
         <v>24</v>
       </c>
       <c r="C25" s="16">
@@ -1602,11 +1578,10 @@
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="34">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="26">
         <v>25</v>
       </c>
       <c r="C26" s="16">
@@ -1624,11 +1599,10 @@
       <c r="G26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="34">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="26">
         <v>26</v>
       </c>
       <c r="C27" s="16">
@@ -1646,11 +1620,10 @@
       <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="34">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="26">
         <v>27</v>
       </c>
       <c r="C28" s="16">
@@ -1668,11 +1641,10 @@
       <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="34">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="26">
         <v>28</v>
       </c>
       <c r="C29" s="16">
@@ -1690,11 +1662,10 @@
       <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="34">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="26">
         <v>29</v>
       </c>
       <c r="C30" s="16">
@@ -1712,11 +1683,10 @@
       <c r="G30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="34">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="26">
         <v>30</v>
       </c>
       <c r="C31" s="16">
@@ -1734,11 +1704,10 @@
       <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="34">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="26">
         <v>31</v>
       </c>
       <c r="C32" s="16">
@@ -1756,11 +1725,10 @@
       <c r="G32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="44"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="34">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="26">
         <v>32</v>
       </c>
       <c r="C33" s="16">
@@ -1778,11 +1746,10 @@
       <c r="G33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="44"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="34">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="26">
         <v>33</v>
       </c>
       <c r="C34" s="16">
@@ -1800,11 +1767,10 @@
       <c r="G34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="44"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="34">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="26">
         <v>34</v>
       </c>
       <c r="C35" s="16">
@@ -1822,11 +1788,10 @@
       <c r="G35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="44"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="34">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="26">
         <v>35</v>
       </c>
       <c r="C36" s="16">
@@ -1844,11 +1809,10 @@
       <c r="G36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="34">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="26">
         <v>36</v>
       </c>
       <c r="C37" s="16">
@@ -1866,11 +1830,10 @@
       <c r="G37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="44"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="34">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="26">
         <v>37</v>
       </c>
       <c r="C38" s="16">
@@ -1888,11 +1851,10 @@
       <c r="G38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="34">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="26">
         <v>38</v>
       </c>
       <c r="C39" s="16">
@@ -1910,11 +1872,10 @@
       <c r="G39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="34">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="26">
         <v>39</v>
       </c>
       <c r="C40" s="16">
@@ -1932,11 +1893,10 @@
       <c r="G40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="44"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="34">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
+      <c r="B41" s="26">
         <v>40</v>
       </c>
       <c r="C41" s="16">
@@ -1954,11 +1914,10 @@
       <c r="G41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="44"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="34">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="26">
         <v>41</v>
       </c>
       <c r="C42" s="16">
@@ -1976,11 +1935,10 @@
       <c r="G42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="44"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="34">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="26">
         <v>42</v>
       </c>
       <c r="C43" s="16">
@@ -1998,11 +1956,10 @@
       <c r="G43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="44"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="34">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
+      <c r="B44" s="26">
         <v>43</v>
       </c>
       <c r="C44" s="16">
@@ -2020,11 +1977,10 @@
       <c r="G44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="34">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
+      <c r="B45" s="26">
         <v>44</v>
       </c>
       <c r="C45" s="16">
@@ -2042,11 +1998,10 @@
       <c r="G45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="44"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="34">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="37"/>
+      <c r="B46" s="26">
         <v>45</v>
       </c>
       <c r="C46" s="16">
@@ -2064,11 +2019,10 @@
       <c r="G46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="44"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="34">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="26">
         <v>46</v>
       </c>
       <c r="C47" s="16">
@@ -2086,11 +2040,10 @@
       <c r="G47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="44"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="34">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="37"/>
+      <c r="B48" s="26">
         <v>47</v>
       </c>
       <c r="C48" s="16">
@@ -2108,11 +2061,10 @@
       <c r="G48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="44"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="34">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="26">
         <v>48</v>
       </c>
       <c r="C49" s="16">
@@ -2130,11 +2082,10 @@
       <c r="G49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="44"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="34">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="37"/>
+      <c r="B50" s="26">
         <v>49</v>
       </c>
       <c r="C50" s="16">
@@ -2152,11 +2103,10 @@
       <c r="G50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="44"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="34">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
+      <c r="B51" s="26">
         <v>50</v>
       </c>
       <c r="C51" s="16">
@@ -2174,11 +2124,10 @@
       <c r="G51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="44"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="34">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="37"/>
+      <c r="B52" s="26">
         <v>51</v>
       </c>
       <c r="C52" s="16">
@@ -2196,11 +2145,10 @@
       <c r="G52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="44"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="34">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
+      <c r="B53" s="26">
         <v>52</v>
       </c>
       <c r="C53" s="16">
@@ -2218,11 +2166,10 @@
       <c r="G53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="44"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="34">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+      <c r="B54" s="26">
         <v>53</v>
       </c>
       <c r="C54" s="16">
@@ -2240,11 +2187,10 @@
       <c r="G54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="44"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="34">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="37"/>
+      <c r="B55" s="26">
         <v>54</v>
       </c>
       <c r="C55" s="16">
@@ -2262,11 +2208,10 @@
       <c r="G55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="44"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="34">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="37"/>
+      <c r="B56" s="26">
         <v>55</v>
       </c>
       <c r="C56" s="16">
@@ -2284,11 +2229,10 @@
       <c r="G56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="44"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="34">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="26">
         <v>56</v>
       </c>
       <c r="C57" s="16">
@@ -2306,11 +2250,10 @@
       <c r="G57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="44"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="34">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="37"/>
+      <c r="B58" s="26">
         <v>57</v>
       </c>
       <c r="C58" s="16">
@@ -2328,11 +2271,10 @@
       <c r="G58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="44"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="34">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
+      <c r="B59" s="26">
         <v>58</v>
       </c>
       <c r="C59" s="16">
@@ -2350,11 +2292,10 @@
       <c r="G59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="44"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="34">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
+      <c r="B60" s="26">
         <v>59</v>
       </c>
       <c r="C60" s="16">
@@ -2372,11 +2313,10 @@
       <c r="G60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="44"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="34">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
+      <c r="B61" s="26">
         <v>60</v>
       </c>
       <c r="C61" s="16">
@@ -2394,11 +2334,10 @@
       <c r="G61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="44"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="34">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="26">
         <v>61</v>
       </c>
       <c r="C62" s="16">
@@ -2416,11 +2355,10 @@
       <c r="G62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="44"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="34">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="26">
         <v>62</v>
       </c>
       <c r="C63" s="16">
@@ -2438,11 +2376,10 @@
       <c r="G63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="44"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="34">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="26">
         <v>63</v>
       </c>
       <c r="C64" s="16">
@@ -2460,11 +2397,10 @@
       <c r="G64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="44"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="34">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="26">
         <v>64</v>
       </c>
       <c r="C65" s="16">
@@ -2482,11 +2418,10 @@
       <c r="G65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="44"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="34">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="26">
         <v>65</v>
       </c>
       <c r="C66" s="16">
@@ -2504,11 +2439,10 @@
       <c r="G66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="44"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="34">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="26">
         <v>66</v>
       </c>
       <c r="C67" s="16">
@@ -2526,11 +2460,10 @@
       <c r="G67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="44"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="34">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="37"/>
+      <c r="B68" s="26">
         <v>67</v>
       </c>
       <c r="C68" s="16">
@@ -2548,11 +2481,10 @@
       <c r="G68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="44"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="34">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="26">
         <v>68</v>
       </c>
       <c r="C69" s="16">
@@ -2570,11 +2502,10 @@
       <c r="G69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="44"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="34">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="37"/>
+      <c r="B70" s="26">
         <v>69</v>
       </c>
       <c r="C70" s="16">
@@ -2592,11 +2523,10 @@
       <c r="G70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="44"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="34">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="26">
         <v>70</v>
       </c>
       <c r="C71" s="16">
@@ -2614,11 +2544,10 @@
       <c r="G71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="44"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="34">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="26">
         <v>71</v>
       </c>
       <c r="C72" s="16">
@@ -2636,11 +2565,10 @@
       <c r="G72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="44"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="34">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+      <c r="B73" s="26">
         <v>72</v>
       </c>
       <c r="C73" s="16">
@@ -2658,11 +2586,10 @@
       <c r="G73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="44"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="34">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+      <c r="B74" s="26">
         <v>73</v>
       </c>
       <c r="C74" s="16">
@@ -2680,11 +2607,10 @@
       <c r="G74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="44"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="34">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="37"/>
+      <c r="B75" s="26">
         <v>74</v>
       </c>
       <c r="C75" s="16">
@@ -2702,11 +2628,10 @@
       <c r="G75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="44"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="34">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="26">
         <v>75</v>
       </c>
       <c r="C76" s="16">
@@ -2724,11 +2649,10 @@
       <c r="G76" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="44"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="34">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="26">
         <v>76</v>
       </c>
       <c r="C77" s="16">
@@ -2746,11 +2670,10 @@
       <c r="G77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="44"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="34">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="26">
         <v>77</v>
       </c>
       <c r="C78" s="16">
@@ -2768,11 +2691,10 @@
       <c r="G78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="44"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="34">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="37"/>
+      <c r="B79" s="26">
         <v>78</v>
       </c>
       <c r="C79" s="16">
@@ -2790,11 +2712,10 @@
       <c r="G79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="44"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="34">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" s="26">
         <v>79</v>
       </c>
       <c r="C80" s="16">
@@ -2812,11 +2733,10 @@
       <c r="G80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="44"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="34">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="37"/>
+      <c r="B81" s="26">
         <v>80</v>
       </c>
       <c r="C81" s="16">
@@ -2834,11 +2754,10 @@
       <c r="G81" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="44"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="34">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="37"/>
+      <c r="B82" s="26">
         <v>81</v>
       </c>
       <c r="C82" s="16">
@@ -2856,11 +2775,10 @@
       <c r="G82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="44"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="34">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="37"/>
+      <c r="B83" s="26">
         <v>82</v>
       </c>
       <c r="C83" s="16">
@@ -2878,11 +2796,10 @@
       <c r="G83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="44"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="34">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="37"/>
+      <c r="B84" s="26">
         <v>83</v>
       </c>
       <c r="C84" s="16">
@@ -2900,11 +2817,10 @@
       <c r="G84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="44"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="34">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="37"/>
+      <c r="B85" s="26">
         <v>84</v>
       </c>
       <c r="C85" s="16">
@@ -2922,11 +2838,10 @@
       <c r="G85" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="44"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="34">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="37"/>
+      <c r="B86" s="26">
         <v>85</v>
       </c>
       <c r="C86" s="16">
@@ -2944,11 +2859,10 @@
       <c r="G86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="44"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="34">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="37"/>
+      <c r="B87" s="26">
         <v>86</v>
       </c>
       <c r="C87" s="16">
@@ -2966,11 +2880,10 @@
       <c r="G87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="44"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="34">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="37"/>
+      <c r="B88" s="26">
         <v>87</v>
       </c>
       <c r="C88" s="16">
@@ -2988,11 +2901,10 @@
       <c r="G88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="44"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="34">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="37"/>
+      <c r="B89" s="26">
         <v>88</v>
       </c>
       <c r="C89" s="16">
@@ -3010,11 +2922,10 @@
       <c r="G89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="44"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="34">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" s="26">
         <v>89</v>
       </c>
       <c r="C90" s="16">
@@ -3032,11 +2943,10 @@
       <c r="G90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="44"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="34">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="37"/>
+      <c r="B91" s="26">
         <v>90</v>
       </c>
       <c r="C91" s="16">
@@ -3054,11 +2964,10 @@
       <c r="G91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="44"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="34">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="37"/>
+      <c r="B92" s="26">
         <v>91</v>
       </c>
       <c r="C92" s="16">
@@ -3076,11 +2985,10 @@
       <c r="G92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="44"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="34">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="37"/>
+      <c r="B93" s="26">
         <v>92</v>
       </c>
       <c r="C93" s="16">
@@ -3098,11 +3006,10 @@
       <c r="G93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="44"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="34">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="37"/>
+      <c r="B94" s="26">
         <v>93</v>
       </c>
       <c r="C94" s="16">
@@ -3120,11 +3027,10 @@
       <c r="G94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="44"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="34">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="37"/>
+      <c r="B95" s="26">
         <v>94</v>
       </c>
       <c r="C95" s="16">
@@ -3142,11 +3048,10 @@
       <c r="G95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="44"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="34">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+      <c r="B96" s="26">
         <v>95</v>
       </c>
       <c r="C96" s="16">
@@ -3164,11 +3069,10 @@
       <c r="G96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="44"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="34">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
+      <c r="B97" s="26">
         <v>96</v>
       </c>
       <c r="C97" s="16">
@@ -3186,11 +3090,10 @@
       <c r="G97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="44"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="34">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="37"/>
+      <c r="B98" s="26">
         <v>97</v>
       </c>
       <c r="C98" s="16">
@@ -3208,11 +3111,10 @@
       <c r="G98" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="44"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="34">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="37"/>
+      <c r="B99" s="26">
         <v>98</v>
       </c>
       <c r="C99" s="16">
@@ -3230,11 +3132,10 @@
       <c r="G99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="44"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="34">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="37"/>
+      <c r="B100" s="26">
         <v>99</v>
       </c>
       <c r="C100" s="16">
@@ -3252,11 +3153,10 @@
       <c r="G100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="44"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="35">
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="38"/>
+      <c r="B101" s="27">
         <v>100</v>
       </c>
       <c r="C101" s="16">
@@ -3274,13 +3174,12 @@
       <c r="G101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="44"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="29">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="39">
         <v>0.1</v>
       </c>
-      <c r="B102" s="36">
+      <c r="B102" s="28">
         <v>1</v>
       </c>
       <c r="C102" s="16">
@@ -3298,11 +3197,10 @@
       <c r="G102" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H102" s="44"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="34">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="26">
         <v>2</v>
       </c>
       <c r="C103" s="16">
@@ -3320,11 +3218,10 @@
       <c r="G103" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="44"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
-      <c r="B104" s="34">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="37"/>
+      <c r="B104" s="26">
         <v>3</v>
       </c>
       <c r="C104" s="16">
@@ -3342,11 +3239,10 @@
       <c r="G104" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="44"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="27"/>
-      <c r="B105" s="34">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="26">
         <v>4</v>
       </c>
       <c r="C105" s="16">
@@ -3364,11 +3260,10 @@
       <c r="G105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H105" s="44"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
-      <c r="B106" s="34">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="37"/>
+      <c r="B106" s="26">
         <v>5</v>
       </c>
       <c r="C106" s="16">
@@ -3386,11 +3281,10 @@
       <c r="G106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H106" s="44"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
-      <c r="B107" s="34">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="37"/>
+      <c r="B107" s="26">
         <v>6</v>
       </c>
       <c r="C107" s="16">
@@ -3408,11 +3302,10 @@
       <c r="G107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="44"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="34">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="37"/>
+      <c r="B108" s="26">
         <v>7</v>
       </c>
       <c r="C108" s="16">
@@ -3430,11 +3323,10 @@
       <c r="G108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="44"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
-      <c r="B109" s="34">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="37"/>
+      <c r="B109" s="26">
         <v>8</v>
       </c>
       <c r="C109" s="16">
@@ -3452,11 +3344,10 @@
       <c r="G109" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H109" s="44"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="34">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="37"/>
+      <c r="B110" s="26">
         <v>9</v>
       </c>
       <c r="C110" s="16">
@@ -3474,11 +3365,10 @@
       <c r="G110" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="44"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
-      <c r="B111" s="34">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="37"/>
+      <c r="B111" s="26">
         <v>10</v>
       </c>
       <c r="C111" s="16">
@@ -3496,11 +3386,10 @@
       <c r="G111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="44"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="34">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="37"/>
+      <c r="B112" s="26">
         <v>11</v>
       </c>
       <c r="C112" s="16">
@@ -3518,11 +3407,10 @@
       <c r="G112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="44"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="27"/>
-      <c r="B113" s="34">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="37"/>
+      <c r="B113" s="26">
         <v>12</v>
       </c>
       <c r="C113" s="16">
@@ -3540,11 +3428,10 @@
       <c r="G113" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="44"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="27"/>
-      <c r="B114" s="34">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="37"/>
+      <c r="B114" s="26">
         <v>13</v>
       </c>
       <c r="C114" s="16">
@@ -3562,11 +3449,10 @@
       <c r="G114" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H114" s="44"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="34">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="37"/>
+      <c r="B115" s="26">
         <v>14</v>
       </c>
       <c r="C115" s="16">
@@ -3584,11 +3470,10 @@
       <c r="G115" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H115" s="44"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
-      <c r="B116" s="34">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="37"/>
+      <c r="B116" s="26">
         <v>15</v>
       </c>
       <c r="C116" s="16">
@@ -3606,11 +3491,10 @@
       <c r="G116" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="44"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
-      <c r="B117" s="34">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="37"/>
+      <c r="B117" s="26">
         <v>16</v>
       </c>
       <c r="C117" s="16">
@@ -3628,11 +3512,10 @@
       <c r="G117" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="44"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="27"/>
-      <c r="B118" s="34">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="37"/>
+      <c r="B118" s="26">
         <v>17</v>
       </c>
       <c r="C118" s="16">
@@ -3650,11 +3533,10 @@
       <c r="G118" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="44"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="34">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="37"/>
+      <c r="B119" s="26">
         <v>18</v>
       </c>
       <c r="C119" s="16">
@@ -3672,11 +3554,10 @@
       <c r="G119" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H119" s="44"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="27"/>
-      <c r="B120" s="34">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="37"/>
+      <c r="B120" s="26">
         <v>19</v>
       </c>
       <c r="C120" s="16">
@@ -3694,11 +3575,10 @@
       <c r="G120" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="44"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="27"/>
-      <c r="B121" s="34">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="37"/>
+      <c r="B121" s="26">
         <v>20</v>
       </c>
       <c r="C121" s="16">
@@ -3716,11 +3596,10 @@
       <c r="G121" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="44"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="27"/>
-      <c r="B122" s="34">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="37"/>
+      <c r="B122" s="26">
         <v>21</v>
       </c>
       <c r="C122" s="16">
@@ -3738,11 +3617,10 @@
       <c r="G122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="44"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="34">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="37"/>
+      <c r="B123" s="26">
         <v>22</v>
       </c>
       <c r="C123" s="16">
@@ -3760,11 +3638,10 @@
       <c r="G123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H123" s="44"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="27"/>
-      <c r="B124" s="34">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="37"/>
+      <c r="B124" s="26">
         <v>23</v>
       </c>
       <c r="C124" s="16">
@@ -3782,11 +3659,10 @@
       <c r="G124" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H124" s="44"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="27"/>
-      <c r="B125" s="34">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="37"/>
+      <c r="B125" s="26">
         <v>24</v>
       </c>
       <c r="C125" s="16">
@@ -3804,11 +3680,10 @@
       <c r="G125" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H125" s="44"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="27"/>
-      <c r="B126" s="34">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="37"/>
+      <c r="B126" s="26">
         <v>25</v>
       </c>
       <c r="C126" s="16">
@@ -3826,11 +3701,10 @@
       <c r="G126" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="44"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
-      <c r="B127" s="34">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="37"/>
+      <c r="B127" s="26">
         <v>26</v>
       </c>
       <c r="C127" s="16">
@@ -3848,11 +3722,10 @@
       <c r="G127" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="44"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
-      <c r="B128" s="34">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="37"/>
+      <c r="B128" s="26">
         <v>27</v>
       </c>
       <c r="C128" s="16">
@@ -3870,11 +3743,10 @@
       <c r="G128" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H128" s="44"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="27"/>
-      <c r="B129" s="34">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="37"/>
+      <c r="B129" s="26">
         <v>28</v>
       </c>
       <c r="C129" s="16">
@@ -3892,11 +3764,10 @@
       <c r="G129" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H129" s="44"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="27"/>
-      <c r="B130" s="34">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="37"/>
+      <c r="B130" s="26">
         <v>29</v>
       </c>
       <c r="C130" s="16">
@@ -3914,11 +3785,10 @@
       <c r="G130" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="44"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="27"/>
-      <c r="B131" s="34">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="37"/>
+      <c r="B131" s="26">
         <v>30</v>
       </c>
       <c r="C131" s="16">
@@ -3936,11 +3806,10 @@
       <c r="G131" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H131" s="44"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
-      <c r="B132" s="34">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="37"/>
+      <c r="B132" s="26">
         <v>31</v>
       </c>
       <c r="C132" s="16">
@@ -3958,11 +3827,10 @@
       <c r="G132" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H132" s="44"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="27"/>
-      <c r="B133" s="34">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="37"/>
+      <c r="B133" s="26">
         <v>32</v>
       </c>
       <c r="C133" s="16">
@@ -3980,11 +3848,10 @@
       <c r="G133" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H133" s="44"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="27"/>
-      <c r="B134" s="34">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="37"/>
+      <c r="B134" s="26">
         <v>33</v>
       </c>
       <c r="C134" s="16">
@@ -4002,11 +3869,10 @@
       <c r="G134" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="44"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
-      <c r="B135" s="34">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="37"/>
+      <c r="B135" s="26">
         <v>34</v>
       </c>
       <c r="C135" s="16">
@@ -4024,11 +3890,10 @@
       <c r="G135" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="44"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="34">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="37"/>
+      <c r="B136" s="26">
         <v>35</v>
       </c>
       <c r="C136" s="16">
@@ -4046,11 +3911,10 @@
       <c r="G136" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="44"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="27"/>
-      <c r="B137" s="34">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="37"/>
+      <c r="B137" s="26">
         <v>36</v>
       </c>
       <c r="C137" s="16">
@@ -4068,11 +3932,10 @@
       <c r="G137" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H137" s="44"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="27"/>
-      <c r="B138" s="34">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="37"/>
+      <c r="B138" s="26">
         <v>37</v>
       </c>
       <c r="C138" s="16">
@@ -4090,11 +3953,10 @@
       <c r="G138" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H138" s="44"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
-      <c r="B139" s="34">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="37"/>
+      <c r="B139" s="26">
         <v>38</v>
       </c>
       <c r="C139" s="16">
@@ -4112,11 +3974,10 @@
       <c r="G139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H139" s="44"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="27"/>
-      <c r="B140" s="34">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="37"/>
+      <c r="B140" s="26">
         <v>39</v>
       </c>
       <c r="C140" s="16">
@@ -4134,11 +3995,10 @@
       <c r="G140" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H140" s="44"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="27"/>
-      <c r="B141" s="34">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="37"/>
+      <c r="B141" s="26">
         <v>40</v>
       </c>
       <c r="C141" s="16">
@@ -4156,11 +4016,10 @@
       <c r="G141" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H141" s="44"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="27"/>
-      <c r="B142" s="34">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="37"/>
+      <c r="B142" s="26">
         <v>41</v>
       </c>
       <c r="C142" s="16">
@@ -4178,11 +4037,10 @@
       <c r="G142" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H142" s="44"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="27"/>
-      <c r="B143" s="34">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="37"/>
+      <c r="B143" s="26">
         <v>42</v>
       </c>
       <c r="C143" s="16">
@@ -4200,11 +4058,10 @@
       <c r="G143" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H143" s="44"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="27"/>
-      <c r="B144" s="34">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="37"/>
+      <c r="B144" s="26">
         <v>43</v>
       </c>
       <c r="C144" s="16">
@@ -4222,11 +4079,10 @@
       <c r="G144" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H144" s="44"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="27"/>
-      <c r="B145" s="34">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="37"/>
+      <c r="B145" s="26">
         <v>44</v>
       </c>
       <c r="C145" s="16">
@@ -4244,11 +4100,10 @@
       <c r="G145" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="44"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="27"/>
-      <c r="B146" s="34">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="37"/>
+      <c r="B146" s="26">
         <v>45</v>
       </c>
       <c r="C146" s="16">
@@ -4266,11 +4121,10 @@
       <c r="G146" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H146" s="44"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="27"/>
-      <c r="B147" s="34">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="37"/>
+      <c r="B147" s="26">
         <v>46</v>
       </c>
       <c r="C147" s="16">
@@ -4288,11 +4142,10 @@
       <c r="G147" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H147" s="44"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="27"/>
-      <c r="B148" s="34">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="37"/>
+      <c r="B148" s="26">
         <v>47</v>
       </c>
       <c r="C148" s="16">
@@ -4310,11 +4163,10 @@
       <c r="G148" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H148" s="44"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="27"/>
-      <c r="B149" s="34">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="37"/>
+      <c r="B149" s="26">
         <v>48</v>
       </c>
       <c r="C149" s="16">
@@ -4332,11 +4184,10 @@
       <c r="G149" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H149" s="44"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="27"/>
-      <c r="B150" s="34">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="37"/>
+      <c r="B150" s="26">
         <v>49</v>
       </c>
       <c r="C150" s="16">
@@ -4354,11 +4205,10 @@
       <c r="G150" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="44"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
-      <c r="B151" s="34">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="37"/>
+      <c r="B151" s="26">
         <v>50</v>
       </c>
       <c r="C151" s="16">
@@ -4376,11 +4226,10 @@
       <c r="G151" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="44"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
-      <c r="B152" s="34">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="37"/>
+      <c r="B152" s="26">
         <v>51</v>
       </c>
       <c r="C152" s="16">
@@ -4398,11 +4247,10 @@
       <c r="G152" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H152" s="44"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="27"/>
-      <c r="B153" s="34">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="37"/>
+      <c r="B153" s="26">
         <v>52</v>
       </c>
       <c r="C153" s="16">
@@ -4420,11 +4268,10 @@
       <c r="G153" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="44"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="27"/>
-      <c r="B154" s="34">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="37"/>
+      <c r="B154" s="26">
         <v>53</v>
       </c>
       <c r="C154" s="16">
@@ -4442,11 +4289,10 @@
       <c r="G154" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H154" s="44"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="27"/>
-      <c r="B155" s="34">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="37"/>
+      <c r="B155" s="26">
         <v>54</v>
       </c>
       <c r="C155" s="16">
@@ -4464,11 +4310,10 @@
       <c r="G155" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H155" s="44"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="27"/>
-      <c r="B156" s="34">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="37"/>
+      <c r="B156" s="26">
         <v>55</v>
       </c>
       <c r="C156" s="16">
@@ -4486,11 +4331,10 @@
       <c r="G156" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H156" s="44"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="27"/>
-      <c r="B157" s="34">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="37"/>
+      <c r="B157" s="26">
         <v>56</v>
       </c>
       <c r="C157" s="16">
@@ -4508,11 +4352,10 @@
       <c r="G157" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H157" s="44"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="27"/>
-      <c r="B158" s="34">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="37"/>
+      <c r="B158" s="26">
         <v>57</v>
       </c>
       <c r="C158" s="16">
@@ -4530,11 +4373,10 @@
       <c r="G158" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H158" s="44"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
-      <c r="B159" s="34">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="37"/>
+      <c r="B159" s="26">
         <v>58</v>
       </c>
       <c r="C159" s="16">
@@ -4552,11 +4394,10 @@
       <c r="G159" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H159" s="44"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="27"/>
-      <c r="B160" s="34">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="37"/>
+      <c r="B160" s="26">
         <v>59</v>
       </c>
       <c r="C160" s="16">
@@ -4574,11 +4415,10 @@
       <c r="G160" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H160" s="44"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="27"/>
-      <c r="B161" s="34">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="37"/>
+      <c r="B161" s="26">
         <v>60</v>
       </c>
       <c r="C161" s="16">
@@ -4596,11 +4436,10 @@
       <c r="G161" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H161" s="44"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="27"/>
-      <c r="B162" s="34">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="37"/>
+      <c r="B162" s="26">
         <v>61</v>
       </c>
       <c r="C162" s="16">
@@ -4618,11 +4457,10 @@
       <c r="G162" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H162" s="44"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="27"/>
-      <c r="B163" s="34">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="37"/>
+      <c r="B163" s="26">
         <v>62</v>
       </c>
       <c r="C163" s="16">
@@ -4640,11 +4478,10 @@
       <c r="G163" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="44"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="27"/>
-      <c r="B164" s="34">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="37"/>
+      <c r="B164" s="26">
         <v>63</v>
       </c>
       <c r="C164" s="16">
@@ -4662,11 +4499,10 @@
       <c r="G164" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H164" s="44"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="27"/>
-      <c r="B165" s="34">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="37"/>
+      <c r="B165" s="26">
         <v>64</v>
       </c>
       <c r="C165" s="16">
@@ -4684,11 +4520,10 @@
       <c r="G165" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H165" s="44"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="27"/>
-      <c r="B166" s="34">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="37"/>
+      <c r="B166" s="26">
         <v>65</v>
       </c>
       <c r="C166" s="16">
@@ -4706,11 +4541,10 @@
       <c r="G166" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H166" s="44"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="27"/>
-      <c r="B167" s="34">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="37"/>
+      <c r="B167" s="26">
         <v>66</v>
       </c>
       <c r="C167" s="16">
@@ -4728,11 +4562,10 @@
       <c r="G167" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H167" s="44"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="27"/>
-      <c r="B168" s="34">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="37"/>
+      <c r="B168" s="26">
         <v>67</v>
       </c>
       <c r="C168" s="16">
@@ -4750,11 +4583,10 @@
       <c r="G168" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H168" s="44"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="27"/>
-      <c r="B169" s="34">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="37"/>
+      <c r="B169" s="26">
         <v>68</v>
       </c>
       <c r="C169" s="16">
@@ -4772,11 +4604,10 @@
       <c r="G169" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H169" s="44"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="27"/>
-      <c r="B170" s="34">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="37"/>
+      <c r="B170" s="26">
         <v>69</v>
       </c>
       <c r="C170" s="16">
@@ -4794,11 +4625,10 @@
       <c r="G170" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H170" s="44"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="27"/>
-      <c r="B171" s="34">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="37"/>
+      <c r="B171" s="26">
         <v>70</v>
       </c>
       <c r="C171" s="16">
@@ -4816,11 +4646,10 @@
       <c r="G171" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="44"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="27"/>
-      <c r="B172" s="34">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="37"/>
+      <c r="B172" s="26">
         <v>71</v>
       </c>
       <c r="C172" s="16">
@@ -4838,11 +4667,10 @@
       <c r="G172" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="44"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="27"/>
-      <c r="B173" s="34">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="37"/>
+      <c r="B173" s="26">
         <v>72</v>
       </c>
       <c r="C173" s="16">
@@ -4860,11 +4688,10 @@
       <c r="G173" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H173" s="44"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="27"/>
-      <c r="B174" s="34">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="37"/>
+      <c r="B174" s="26">
         <v>73</v>
       </c>
       <c r="C174" s="16">
@@ -4882,11 +4709,10 @@
       <c r="G174" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H174" s="44"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="27"/>
-      <c r="B175" s="34">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="37"/>
+      <c r="B175" s="26">
         <v>74</v>
       </c>
       <c r="C175" s="16">
@@ -4904,11 +4730,10 @@
       <c r="G175" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H175" s="44"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="27"/>
-      <c r="B176" s="34">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="37"/>
+      <c r="B176" s="26">
         <v>75</v>
       </c>
       <c r="C176" s="16">
@@ -4926,11 +4751,10 @@
       <c r="G176" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H176" s="44"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="27"/>
-      <c r="B177" s="34">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="37"/>
+      <c r="B177" s="26">
         <v>76</v>
       </c>
       <c r="C177" s="16">
@@ -4948,11 +4772,10 @@
       <c r="G177" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H177" s="44"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="27"/>
-      <c r="B178" s="34">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="37"/>
+      <c r="B178" s="26">
         <v>77</v>
       </c>
       <c r="C178" s="16">
@@ -4970,11 +4793,10 @@
       <c r="G178" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H178" s="44"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="27"/>
-      <c r="B179" s="34">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="37"/>
+      <c r="B179" s="26">
         <v>78</v>
       </c>
       <c r="C179" s="16">
@@ -4992,11 +4814,10 @@
       <c r="G179" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H179" s="44"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="27"/>
-      <c r="B180" s="34">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="37"/>
+      <c r="B180" s="26">
         <v>79</v>
       </c>
       <c r="C180" s="16">
@@ -5014,11 +4835,10 @@
       <c r="G180" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H180" s="44"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="27"/>
-      <c r="B181" s="34">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="37"/>
+      <c r="B181" s="26">
         <v>80</v>
       </c>
       <c r="C181" s="16">
@@ -5036,11 +4856,10 @@
       <c r="G181" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H181" s="44"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="27"/>
-      <c r="B182" s="34">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="37"/>
+      <c r="B182" s="26">
         <v>81</v>
       </c>
       <c r="C182" s="16">
@@ -5058,11 +4877,10 @@
       <c r="G182" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H182" s="44"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="27"/>
-      <c r="B183" s="34">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="37"/>
+      <c r="B183" s="26">
         <v>82</v>
       </c>
       <c r="C183" s="16">
@@ -5080,11 +4898,10 @@
       <c r="G183" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="44"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="27"/>
-      <c r="B184" s="34">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="37"/>
+      <c r="B184" s="26">
         <v>83</v>
       </c>
       <c r="C184" s="16">
@@ -5102,11 +4919,10 @@
       <c r="G184" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H184" s="44"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="27"/>
-      <c r="B185" s="34">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="37"/>
+      <c r="B185" s="26">
         <v>84</v>
       </c>
       <c r="C185" s="16">
@@ -5124,11 +4940,10 @@
       <c r="G185" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="44"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="27"/>
-      <c r="B186" s="34">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="37"/>
+      <c r="B186" s="26">
         <v>85</v>
       </c>
       <c r="C186" s="16">
@@ -5146,11 +4961,10 @@
       <c r="G186" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H186" s="44"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="27"/>
-      <c r="B187" s="34">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="37"/>
+      <c r="B187" s="26">
         <v>86</v>
       </c>
       <c r="C187" s="16">
@@ -5168,11 +4982,10 @@
       <c r="G187" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H187" s="44"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="27"/>
-      <c r="B188" s="34">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="37"/>
+      <c r="B188" s="26">
         <v>87</v>
       </c>
       <c r="C188" s="16">
@@ -5190,11 +5003,10 @@
       <c r="G188" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H188" s="44"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="27"/>
-      <c r="B189" s="34">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="37"/>
+      <c r="B189" s="26">
         <v>88</v>
       </c>
       <c r="C189" s="16">
@@ -5212,11 +5024,10 @@
       <c r="G189" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H189" s="44"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="27"/>
-      <c r="B190" s="34">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="37"/>
+      <c r="B190" s="26">
         <v>89</v>
       </c>
       <c r="C190" s="16">
@@ -5234,11 +5045,10 @@
       <c r="G190" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H190" s="44"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="27"/>
-      <c r="B191" s="34">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="37"/>
+      <c r="B191" s="26">
         <v>90</v>
       </c>
       <c r="C191" s="16">
@@ -5256,11 +5066,10 @@
       <c r="G191" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H191" s="44"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="27"/>
-      <c r="B192" s="34">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="37"/>
+      <c r="B192" s="26">
         <v>91</v>
       </c>
       <c r="C192" s="16">
@@ -5278,11 +5087,10 @@
       <c r="G192" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="44"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="27"/>
-      <c r="B193" s="34">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="37"/>
+      <c r="B193" s="26">
         <v>92</v>
       </c>
       <c r="C193" s="16">
@@ -5300,11 +5108,10 @@
       <c r="G193" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H193" s="44"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="27"/>
-      <c r="B194" s="34">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="37"/>
+      <c r="B194" s="26">
         <v>93</v>
       </c>
       <c r="C194" s="16">
@@ -5322,11 +5129,10 @@
       <c r="G194" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H194" s="44"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="27"/>
-      <c r="B195" s="34">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="37"/>
+      <c r="B195" s="26">
         <v>94</v>
       </c>
       <c r="C195" s="16">
@@ -5344,11 +5150,10 @@
       <c r="G195" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H195" s="44"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="27"/>
-      <c r="B196" s="34">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="37"/>
+      <c r="B196" s="26">
         <v>95</v>
       </c>
       <c r="C196" s="16">
@@ -5366,11 +5171,10 @@
       <c r="G196" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H196" s="44"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="27"/>
-      <c r="B197" s="34">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="37"/>
+      <c r="B197" s="26">
         <v>96</v>
       </c>
       <c r="C197" s="16">
@@ -5388,11 +5192,10 @@
       <c r="G197" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H197" s="44"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="27"/>
-      <c r="B198" s="34">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="37"/>
+      <c r="B198" s="26">
         <v>97</v>
       </c>
       <c r="C198" s="16">
@@ -5410,11 +5213,10 @@
       <c r="G198" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H198" s="44"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="27"/>
-      <c r="B199" s="34">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="37"/>
+      <c r="B199" s="26">
         <v>98</v>
       </c>
       <c r="C199" s="16">
@@ -5432,11 +5234,10 @@
       <c r="G199" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H199" s="44"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="27"/>
-      <c r="B200" s="34">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="37"/>
+      <c r="B200" s="26">
         <v>99</v>
       </c>
       <c r="C200" s="16">
@@ -5454,11 +5255,10 @@
       <c r="G200" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H200" s="44"/>
-    </row>
-    <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="28"/>
-      <c r="B201" s="35">
+    </row>
+    <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="38"/>
+      <c r="B201" s="27">
         <v>100</v>
       </c>
       <c r="C201" s="16">
@@ -5476,13 +5276,12 @@
       <c r="G201" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H201" s="44"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="26">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="36">
         <v>1</v>
       </c>
-      <c r="B202" s="33">
+      <c r="B202" s="25">
         <v>1</v>
       </c>
       <c r="C202" s="16">
@@ -5500,11 +5299,10 @@
       <c r="G202" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H202" s="44"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="27"/>
-      <c r="B203" s="34">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="37"/>
+      <c r="B203" s="26">
         <v>2</v>
       </c>
       <c r="C203" s="16">
@@ -5522,11 +5320,10 @@
       <c r="G203" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H203" s="44"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="27"/>
-      <c r="B204" s="34">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="37"/>
+      <c r="B204" s="26">
         <v>3</v>
       </c>
       <c r="C204" s="16">
@@ -5544,11 +5341,10 @@
       <c r="G204" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H204" s="44"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="27"/>
-      <c r="B205" s="34">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="37"/>
+      <c r="B205" s="26">
         <v>4</v>
       </c>
       <c r="C205" s="16">
@@ -5566,11 +5362,10 @@
       <c r="G205" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H205" s="44"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="27"/>
-      <c r="B206" s="34">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="37"/>
+      <c r="B206" s="26">
         <v>5</v>
       </c>
       <c r="C206" s="16">
@@ -5588,11 +5383,10 @@
       <c r="G206" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H206" s="44"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="27"/>
-      <c r="B207" s="34">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="37"/>
+      <c r="B207" s="26">
         <v>6</v>
       </c>
       <c r="C207" s="16">
@@ -5610,11 +5404,10 @@
       <c r="G207" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H207" s="44"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="27"/>
-      <c r="B208" s="34">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="37"/>
+      <c r="B208" s="26">
         <v>7</v>
       </c>
       <c r="C208" s="16">
@@ -5632,11 +5425,10 @@
       <c r="G208" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H208" s="44"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="27"/>
-      <c r="B209" s="34">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="37"/>
+      <c r="B209" s="26">
         <v>8</v>
       </c>
       <c r="C209" s="16">
@@ -5654,11 +5446,10 @@
       <c r="G209" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H209" s="44"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="27"/>
-      <c r="B210" s="34">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="37"/>
+      <c r="B210" s="26">
         <v>9</v>
       </c>
       <c r="C210" s="16">
@@ -5676,11 +5467,10 @@
       <c r="G210" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H210" s="44"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="27"/>
-      <c r="B211" s="34">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="37"/>
+      <c r="B211" s="26">
         <v>10</v>
       </c>
       <c r="C211" s="16">
@@ -5698,11 +5488,10 @@
       <c r="G211" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H211" s="44"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="27"/>
-      <c r="B212" s="34">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="37"/>
+      <c r="B212" s="26">
         <v>11</v>
       </c>
       <c r="C212" s="16">
@@ -5720,11 +5509,10 @@
       <c r="G212" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H212" s="44"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="27"/>
-      <c r="B213" s="34">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="37"/>
+      <c r="B213" s="26">
         <v>12</v>
       </c>
       <c r="C213" s="16">
@@ -5742,11 +5530,10 @@
       <c r="G213" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H213" s="44"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="27"/>
-      <c r="B214" s="34">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="37"/>
+      <c r="B214" s="26">
         <v>13</v>
       </c>
       <c r="C214" s="16">
@@ -5764,11 +5551,10 @@
       <c r="G214" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H214" s="44"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="27"/>
-      <c r="B215" s="34">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="37"/>
+      <c r="B215" s="26">
         <v>14</v>
       </c>
       <c r="C215" s="16">
@@ -5786,11 +5572,10 @@
       <c r="G215" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H215" s="44"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="27"/>
-      <c r="B216" s="34">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="37"/>
+      <c r="B216" s="26">
         <v>15</v>
       </c>
       <c r="C216" s="16">
@@ -5808,11 +5593,10 @@
       <c r="G216" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H216" s="44"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="27"/>
-      <c r="B217" s="34">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="37"/>
+      <c r="B217" s="26">
         <v>16</v>
       </c>
       <c r="C217" s="16">
@@ -5830,11 +5614,10 @@
       <c r="G217" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H217" s="44"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="27"/>
-      <c r="B218" s="34">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="37"/>
+      <c r="B218" s="26">
         <v>17</v>
       </c>
       <c r="C218" s="16">
@@ -5852,11 +5635,10 @@
       <c r="G218" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H218" s="44"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="27"/>
-      <c r="B219" s="34">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="37"/>
+      <c r="B219" s="26">
         <v>18</v>
       </c>
       <c r="C219" s="16">
@@ -5874,11 +5656,10 @@
       <c r="G219" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H219" s="44"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="27"/>
-      <c r="B220" s="34">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="37"/>
+      <c r="B220" s="26">
         <v>19</v>
       </c>
       <c r="C220" s="16">
@@ -5896,11 +5677,10 @@
       <c r="G220" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H220" s="44"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="27"/>
-      <c r="B221" s="34">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="37"/>
+      <c r="B221" s="26">
         <v>20</v>
       </c>
       <c r="C221" s="16">
@@ -5918,11 +5698,10 @@
       <c r="G221" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H221" s="44"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="27"/>
-      <c r="B222" s="34">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="37"/>
+      <c r="B222" s="26">
         <v>21</v>
       </c>
       <c r="C222" s="16">
@@ -5940,11 +5719,10 @@
       <c r="G222" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H222" s="44"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="27"/>
-      <c r="B223" s="34">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="37"/>
+      <c r="B223" s="26">
         <v>22</v>
       </c>
       <c r="C223" s="16">
@@ -5962,11 +5740,10 @@
       <c r="G223" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H223" s="44"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="27"/>
-      <c r="B224" s="34">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="37"/>
+      <c r="B224" s="26">
         <v>23</v>
       </c>
       <c r="C224" s="16">
@@ -5984,11 +5761,10 @@
       <c r="G224" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H224" s="44"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="27"/>
-      <c r="B225" s="34">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="37"/>
+      <c r="B225" s="26">
         <v>24</v>
       </c>
       <c r="C225" s="16">
@@ -6006,11 +5782,10 @@
       <c r="G225" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H225" s="44"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="27"/>
-      <c r="B226" s="34">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="37"/>
+      <c r="B226" s="26">
         <v>25</v>
       </c>
       <c r="C226" s="16">
@@ -6028,11 +5803,10 @@
       <c r="G226" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H226" s="44"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="27"/>
-      <c r="B227" s="34">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="37"/>
+      <c r="B227" s="26">
         <v>26</v>
       </c>
       <c r="C227" s="16">
@@ -6050,11 +5824,10 @@
       <c r="G227" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H227" s="44"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="27"/>
-      <c r="B228" s="34">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="37"/>
+      <c r="B228" s="26">
         <v>27</v>
       </c>
       <c r="C228" s="16">
@@ -6072,11 +5845,10 @@
       <c r="G228" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H228" s="44"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="27"/>
-      <c r="B229" s="34">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="37"/>
+      <c r="B229" s="26">
         <v>28</v>
       </c>
       <c r="C229" s="16">
@@ -6094,11 +5866,10 @@
       <c r="G229" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H229" s="44"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="27"/>
-      <c r="B230" s="34">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="37"/>
+      <c r="B230" s="26">
         <v>29</v>
       </c>
       <c r="C230" s="16">
@@ -6116,11 +5887,10 @@
       <c r="G230" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H230" s="44"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="27"/>
-      <c r="B231" s="34">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="37"/>
+      <c r="B231" s="26">
         <v>30</v>
       </c>
       <c r="C231" s="16">
@@ -6138,11 +5908,10 @@
       <c r="G231" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H231" s="44"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="27"/>
-      <c r="B232" s="34">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="37"/>
+      <c r="B232" s="26">
         <v>31</v>
       </c>
       <c r="C232" s="16">
@@ -6160,11 +5929,10 @@
       <c r="G232" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H232" s="44"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="27"/>
-      <c r="B233" s="34">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="37"/>
+      <c r="B233" s="26">
         <v>32</v>
       </c>
       <c r="C233" s="16">
@@ -6182,11 +5950,10 @@
       <c r="G233" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H233" s="44"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="27"/>
-      <c r="B234" s="34">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="37"/>
+      <c r="B234" s="26">
         <v>33</v>
       </c>
       <c r="C234" s="16">
@@ -6204,11 +5971,10 @@
       <c r="G234" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H234" s="44"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="27"/>
-      <c r="B235" s="34">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="37"/>
+      <c r="B235" s="26">
         <v>34</v>
       </c>
       <c r="C235" s="16">
@@ -6226,11 +5992,10 @@
       <c r="G235" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H235" s="44"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="27"/>
-      <c r="B236" s="34">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="37"/>
+      <c r="B236" s="26">
         <v>35</v>
       </c>
       <c r="C236" s="16">
@@ -6248,11 +6013,10 @@
       <c r="G236" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H236" s="44"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="27"/>
-      <c r="B237" s="34">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="37"/>
+      <c r="B237" s="26">
         <v>36</v>
       </c>
       <c r="C237" s="16">
@@ -6270,11 +6034,10 @@
       <c r="G237" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H237" s="44"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="27"/>
-      <c r="B238" s="34">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="37"/>
+      <c r="B238" s="26">
         <v>37</v>
       </c>
       <c r="C238" s="16">
@@ -6292,11 +6055,10 @@
       <c r="G238" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H238" s="44"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="27"/>
-      <c r="B239" s="34">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="37"/>
+      <c r="B239" s="26">
         <v>38</v>
       </c>
       <c r="C239" s="16">
@@ -6314,11 +6076,10 @@
       <c r="G239" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H239" s="44"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="27"/>
-      <c r="B240" s="34">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="37"/>
+      <c r="B240" s="26">
         <v>39</v>
       </c>
       <c r="C240" s="16">
@@ -6336,11 +6097,10 @@
       <c r="G240" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H240" s="44"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="27"/>
-      <c r="B241" s="34">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="37"/>
+      <c r="B241" s="26">
         <v>40</v>
       </c>
       <c r="C241" s="16">
@@ -6358,11 +6118,10 @@
       <c r="G241" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H241" s="44"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="27"/>
-      <c r="B242" s="34">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="37"/>
+      <c r="B242" s="26">
         <v>41</v>
       </c>
       <c r="C242" s="16">
@@ -6380,11 +6139,10 @@
       <c r="G242" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H242" s="44"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="27"/>
-      <c r="B243" s="34">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="37"/>
+      <c r="B243" s="26">
         <v>42</v>
       </c>
       <c r="C243" s="16">
@@ -6402,11 +6160,10 @@
       <c r="G243" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H243" s="44"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="27"/>
-      <c r="B244" s="34">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="37"/>
+      <c r="B244" s="26">
         <v>43</v>
       </c>
       <c r="C244" s="16">
@@ -6424,11 +6181,10 @@
       <c r="G244" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H244" s="44"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="27"/>
-      <c r="B245" s="34">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="37"/>
+      <c r="B245" s="26">
         <v>44</v>
       </c>
       <c r="C245" s="16">
@@ -6446,11 +6202,10 @@
       <c r="G245" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H245" s="44"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="27"/>
-      <c r="B246" s="34">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="37"/>
+      <c r="B246" s="26">
         <v>45</v>
       </c>
       <c r="C246" s="16">
@@ -6468,11 +6223,10 @@
       <c r="G246" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H246" s="44"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="27"/>
-      <c r="B247" s="34">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="37"/>
+      <c r="B247" s="26">
         <v>46</v>
       </c>
       <c r="C247" s="16">
@@ -6490,11 +6244,10 @@
       <c r="G247" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H247" s="44"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="27"/>
-      <c r="B248" s="34">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="37"/>
+      <c r="B248" s="26">
         <v>47</v>
       </c>
       <c r="C248" s="16">
@@ -6512,11 +6265,10 @@
       <c r="G248" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H248" s="44"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="27"/>
-      <c r="B249" s="34">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="37"/>
+      <c r="B249" s="26">
         <v>48</v>
       </c>
       <c r="C249" s="16">
@@ -6534,11 +6286,10 @@
       <c r="G249" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H249" s="44"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="27"/>
-      <c r="B250" s="34">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="37"/>
+      <c r="B250" s="26">
         <v>49</v>
       </c>
       <c r="C250" s="16">
@@ -6556,11 +6307,10 @@
       <c r="G250" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H250" s="44"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="27"/>
-      <c r="B251" s="34">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="37"/>
+      <c r="B251" s="26">
         <v>50</v>
       </c>
       <c r="C251" s="16">
@@ -6578,11 +6328,10 @@
       <c r="G251" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H251" s="44"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="27"/>
-      <c r="B252" s="34">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="37"/>
+      <c r="B252" s="26">
         <v>51</v>
       </c>
       <c r="C252" s="16">
@@ -6600,11 +6349,10 @@
       <c r="G252" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H252" s="44"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="27"/>
-      <c r="B253" s="34">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="37"/>
+      <c r="B253" s="26">
         <v>52</v>
       </c>
       <c r="C253" s="16">
@@ -6622,11 +6370,10 @@
       <c r="G253" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H253" s="44"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="27"/>
-      <c r="B254" s="34">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="37"/>
+      <c r="B254" s="26">
         <v>53</v>
       </c>
       <c r="C254" s="16">
@@ -6644,11 +6391,10 @@
       <c r="G254" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H254" s="44"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="27"/>
-      <c r="B255" s="34">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="37"/>
+      <c r="B255" s="26">
         <v>54</v>
       </c>
       <c r="C255" s="16">
@@ -6666,11 +6412,10 @@
       <c r="G255" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H255" s="44"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="27"/>
-      <c r="B256" s="34">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="37"/>
+      <c r="B256" s="26">
         <v>55</v>
       </c>
       <c r="C256" s="16">
@@ -6688,11 +6433,10 @@
       <c r="G256" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H256" s="44"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="27"/>
-      <c r="B257" s="34">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="37"/>
+      <c r="B257" s="26">
         <v>56</v>
       </c>
       <c r="C257" s="16">
@@ -6710,11 +6454,10 @@
       <c r="G257" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H257" s="44"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="27"/>
-      <c r="B258" s="34">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="37"/>
+      <c r="B258" s="26">
         <v>57</v>
       </c>
       <c r="C258" s="16">
@@ -6732,11 +6475,10 @@
       <c r="G258" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H258" s="44"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="27"/>
-      <c r="B259" s="34">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="37"/>
+      <c r="B259" s="26">
         <v>58</v>
       </c>
       <c r="C259" s="16">
@@ -6754,11 +6496,10 @@
       <c r="G259" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H259" s="44"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="27"/>
-      <c r="B260" s="34">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="37"/>
+      <c r="B260" s="26">
         <v>59</v>
       </c>
       <c r="C260" s="16">
@@ -6776,11 +6517,10 @@
       <c r="G260" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H260" s="44"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="27"/>
-      <c r="B261" s="34">
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="37"/>
+      <c r="B261" s="26">
         <v>60</v>
       </c>
       <c r="C261" s="16">
@@ -6798,11 +6538,10 @@
       <c r="G261" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H261" s="44"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="27"/>
-      <c r="B262" s="34">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="37"/>
+      <c r="B262" s="26">
         <v>61</v>
       </c>
       <c r="C262" s="16">
@@ -6820,11 +6559,10 @@
       <c r="G262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H262" s="44"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="27"/>
-      <c r="B263" s="34">
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="37"/>
+      <c r="B263" s="26">
         <v>62</v>
       </c>
       <c r="C263" s="16">
@@ -6842,11 +6580,10 @@
       <c r="G263" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H263" s="44"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="27"/>
-      <c r="B264" s="34">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="37"/>
+      <c r="B264" s="26">
         <v>63</v>
       </c>
       <c r="C264" s="16">
@@ -6864,11 +6601,10 @@
       <c r="G264" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H264" s="44"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="27"/>
-      <c r="B265" s="34">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="37"/>
+      <c r="B265" s="26">
         <v>64</v>
       </c>
       <c r="C265" s="16">
@@ -6886,11 +6622,10 @@
       <c r="G265" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H265" s="44"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="27"/>
-      <c r="B266" s="34">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="37"/>
+      <c r="B266" s="26">
         <v>65</v>
       </c>
       <c r="C266" s="16">
@@ -6908,11 +6643,10 @@
       <c r="G266" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H266" s="44"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="27"/>
-      <c r="B267" s="34">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="37"/>
+      <c r="B267" s="26">
         <v>66</v>
       </c>
       <c r="C267" s="16">
@@ -6930,11 +6664,10 @@
       <c r="G267" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H267" s="44"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="27"/>
-      <c r="B268" s="34">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="37"/>
+      <c r="B268" s="26">
         <v>67</v>
       </c>
       <c r="C268" s="16">
@@ -6952,11 +6685,10 @@
       <c r="G268" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H268" s="44"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="27"/>
-      <c r="B269" s="34">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="37"/>
+      <c r="B269" s="26">
         <v>68</v>
       </c>
       <c r="C269" s="16">
@@ -6974,11 +6706,10 @@
       <c r="G269" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H269" s="44"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="27"/>
-      <c r="B270" s="34">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="37"/>
+      <c r="B270" s="26">
         <v>69</v>
       </c>
       <c r="C270" s="16">
@@ -6996,11 +6727,10 @@
       <c r="G270" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H270" s="44"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="27"/>
-      <c r="B271" s="34">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="37"/>
+      <c r="B271" s="26">
         <v>70</v>
       </c>
       <c r="C271" s="16">
@@ -7018,11 +6748,10 @@
       <c r="G271" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H271" s="44"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="27"/>
-      <c r="B272" s="34">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="37"/>
+      <c r="B272" s="26">
         <v>71</v>
       </c>
       <c r="C272" s="16">
@@ -7040,11 +6769,10 @@
       <c r="G272" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H272" s="44"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="27"/>
-      <c r="B273" s="34">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="37"/>
+      <c r="B273" s="26">
         <v>72</v>
       </c>
       <c r="C273" s="16">
@@ -7062,11 +6790,10 @@
       <c r="G273" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H273" s="44"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="27"/>
-      <c r="B274" s="34">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="37"/>
+      <c r="B274" s="26">
         <v>73</v>
       </c>
       <c r="C274" s="16">
@@ -7084,11 +6811,10 @@
       <c r="G274" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H274" s="44"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="27"/>
-      <c r="B275" s="34">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="37"/>
+      <c r="B275" s="26">
         <v>74</v>
       </c>
       <c r="C275" s="16">
@@ -7106,11 +6832,10 @@
       <c r="G275" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H275" s="44"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="27"/>
-      <c r="B276" s="34">
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="37"/>
+      <c r="B276" s="26">
         <v>75</v>
       </c>
       <c r="C276" s="16">
@@ -7128,11 +6853,10 @@
       <c r="G276" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H276" s="44"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="27"/>
-      <c r="B277" s="34">
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="37"/>
+      <c r="B277" s="26">
         <v>76</v>
       </c>
       <c r="C277" s="16">
@@ -7150,11 +6874,10 @@
       <c r="G277" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H277" s="44"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="27"/>
-      <c r="B278" s="34">
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="37"/>
+      <c r="B278" s="26">
         <v>77</v>
       </c>
       <c r="C278" s="16">
@@ -7172,11 +6895,10 @@
       <c r="G278" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H278" s="44"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="27"/>
-      <c r="B279" s="34">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="37"/>
+      <c r="B279" s="26">
         <v>78</v>
       </c>
       <c r="C279" s="16">
@@ -7194,11 +6916,10 @@
       <c r="G279" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H279" s="44"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="27"/>
-      <c r="B280" s="34">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="37"/>
+      <c r="B280" s="26">
         <v>79</v>
       </c>
       <c r="C280" s="16">
@@ -7216,11 +6937,10 @@
       <c r="G280" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H280" s="44"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="27"/>
-      <c r="B281" s="34">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="37"/>
+      <c r="B281" s="26">
         <v>80</v>
       </c>
       <c r="C281" s="16">
@@ -7238,11 +6958,10 @@
       <c r="G281" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H281" s="44"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="27"/>
-      <c r="B282" s="34">
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="37"/>
+      <c r="B282" s="26">
         <v>81</v>
       </c>
       <c r="C282" s="16">
@@ -7260,11 +6979,10 @@
       <c r="G282" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H282" s="44"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="27"/>
-      <c r="B283" s="34">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="37"/>
+      <c r="B283" s="26">
         <v>82</v>
       </c>
       <c r="C283" s="16">
@@ -7282,11 +7000,10 @@
       <c r="G283" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H283" s="44"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="27"/>
-      <c r="B284" s="34">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="37"/>
+      <c r="B284" s="26">
         <v>83</v>
       </c>
       <c r="C284" s="16">
@@ -7304,11 +7021,10 @@
       <c r="G284" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H284" s="44"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="27"/>
-      <c r="B285" s="34">
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="37"/>
+      <c r="B285" s="26">
         <v>84</v>
       </c>
       <c r="C285" s="16">
@@ -7326,11 +7042,10 @@
       <c r="G285" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H285" s="44"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="27"/>
-      <c r="B286" s="34">
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="37"/>
+      <c r="B286" s="26">
         <v>85</v>
       </c>
       <c r="C286" s="16">
@@ -7348,11 +7063,10 @@
       <c r="G286" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H286" s="44"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="27"/>
-      <c r="B287" s="34">
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="37"/>
+      <c r="B287" s="26">
         <v>86</v>
       </c>
       <c r="C287" s="16">
@@ -7370,11 +7084,10 @@
       <c r="G287" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H287" s="44"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="27"/>
-      <c r="B288" s="34">
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="37"/>
+      <c r="B288" s="26">
         <v>87</v>
       </c>
       <c r="C288" s="16">
@@ -7392,11 +7105,10 @@
       <c r="G288" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H288" s="44"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="27"/>
-      <c r="B289" s="34">
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="37"/>
+      <c r="B289" s="26">
         <v>88</v>
       </c>
       <c r="C289" s="16">
@@ -7414,11 +7126,10 @@
       <c r="G289" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H289" s="44"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="27"/>
-      <c r="B290" s="34">
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="37"/>
+      <c r="B290" s="26">
         <v>89</v>
       </c>
       <c r="C290" s="16">
@@ -7436,11 +7147,10 @@
       <c r="G290" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H290" s="44"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="27"/>
-      <c r="B291" s="34">
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="37"/>
+      <c r="B291" s="26">
         <v>90</v>
       </c>
       <c r="C291" s="16">
@@ -7458,11 +7168,10 @@
       <c r="G291" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H291" s="44"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="27"/>
-      <c r="B292" s="34">
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="37"/>
+      <c r="B292" s="26">
         <v>91</v>
       </c>
       <c r="C292" s="16">
@@ -7480,11 +7189,10 @@
       <c r="G292" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H292" s="44"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="27"/>
-      <c r="B293" s="34">
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="37"/>
+      <c r="B293" s="26">
         <v>92</v>
       </c>
       <c r="C293" s="16">
@@ -7502,11 +7210,10 @@
       <c r="G293" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H293" s="44"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="27"/>
-      <c r="B294" s="34">
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="37"/>
+      <c r="B294" s="26">
         <v>93</v>
       </c>
       <c r="C294" s="16">
@@ -7524,11 +7231,10 @@
       <c r="G294" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H294" s="44"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="27"/>
-      <c r="B295" s="34">
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="37"/>
+      <c r="B295" s="26">
         <v>94</v>
       </c>
       <c r="C295" s="16">
@@ -7546,11 +7252,10 @@
       <c r="G295" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H295" s="44"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="27"/>
-      <c r="B296" s="34">
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="37"/>
+      <c r="B296" s="26">
         <v>95</v>
       </c>
       <c r="C296" s="16">
@@ -7568,11 +7273,10 @@
       <c r="G296" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H296" s="44"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="27"/>
-      <c r="B297" s="34">
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="37"/>
+      <c r="B297" s="26">
         <v>96</v>
       </c>
       <c r="C297" s="16">
@@ -7590,11 +7294,10 @@
       <c r="G297" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H297" s="44"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="27"/>
-      <c r="B298" s="34">
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="37"/>
+      <c r="B298" s="26">
         <v>97</v>
       </c>
       <c r="C298" s="16">
@@ -7612,11 +7315,10 @@
       <c r="G298" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H298" s="44"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="27"/>
-      <c r="B299" s="34">
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="37"/>
+      <c r="B299" s="26">
         <v>98</v>
       </c>
       <c r="C299" s="16">
@@ -7634,11 +7336,10 @@
       <c r="G299" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H299" s="44"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="27"/>
-      <c r="B300" s="34">
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="37"/>
+      <c r="B300" s="26">
         <v>99</v>
       </c>
       <c r="C300" s="16">
@@ -7656,11 +7357,10 @@
       <c r="G300" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H300" s="44"/>
-    </row>
-    <row r="301" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="30"/>
-      <c r="B301" s="37">
+    </row>
+    <row r="301" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="40"/>
+      <c r="B301" s="29">
         <v>100</v>
       </c>
       <c r="C301" s="16">
@@ -7678,13 +7378,12 @@
       <c r="G301" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H301" s="44"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="29">
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="39">
         <v>10</v>
       </c>
-      <c r="B302" s="36">
+      <c r="B302" s="28">
         <v>1</v>
       </c>
       <c r="C302" s="16">
@@ -7702,11 +7401,10 @@
       <c r="G302" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H302" s="44"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="27"/>
-      <c r="B303" s="34">
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="37"/>
+      <c r="B303" s="26">
         <v>2</v>
       </c>
       <c r="C303" s="16">
@@ -7724,11 +7422,10 @@
       <c r="G303" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H303" s="44"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="27"/>
-      <c r="B304" s="34">
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="37"/>
+      <c r="B304" s="26">
         <v>3</v>
       </c>
       <c r="C304" s="16">
@@ -7746,11 +7443,10 @@
       <c r="G304" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H304" s="44"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="27"/>
-      <c r="B305" s="34">
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="37"/>
+      <c r="B305" s="26">
         <v>4</v>
       </c>
       <c r="C305" s="16">
@@ -7768,11 +7464,10 @@
       <c r="G305" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H305" s="44"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="27"/>
-      <c r="B306" s="34">
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="37"/>
+      <c r="B306" s="26">
         <v>5</v>
       </c>
       <c r="C306" s="16">
@@ -7790,11 +7485,10 @@
       <c r="G306" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H306" s="44"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="27"/>
-      <c r="B307" s="34">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="37"/>
+      <c r="B307" s="26">
         <v>6</v>
       </c>
       <c r="C307" s="16">
@@ -7812,11 +7506,10 @@
       <c r="G307" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H307" s="44"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="27"/>
-      <c r="B308" s="34">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="37"/>
+      <c r="B308" s="26">
         <v>7</v>
       </c>
       <c r="C308" s="16">
@@ -7834,11 +7527,10 @@
       <c r="G308" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H308" s="44"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="27"/>
-      <c r="B309" s="34">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="37"/>
+      <c r="B309" s="26">
         <v>8</v>
       </c>
       <c r="C309" s="16">
@@ -7856,11 +7548,10 @@
       <c r="G309" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H309" s="44"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="27"/>
-      <c r="B310" s="34">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="37"/>
+      <c r="B310" s="26">
         <v>9</v>
       </c>
       <c r="C310" s="16">
@@ -7878,11 +7569,10 @@
       <c r="G310" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H310" s="44"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="27"/>
-      <c r="B311" s="34">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="37"/>
+      <c r="B311" s="26">
         <v>10</v>
       </c>
       <c r="C311" s="16">
@@ -7900,11 +7590,10 @@
       <c r="G311" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H311" s="44"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="27"/>
-      <c r="B312" s="34">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="37"/>
+      <c r="B312" s="26">
         <v>11</v>
       </c>
       <c r="C312" s="16">
@@ -7922,11 +7611,10 @@
       <c r="G312" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H312" s="44"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="27"/>
-      <c r="B313" s="34">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="37"/>
+      <c r="B313" s="26">
         <v>12</v>
       </c>
       <c r="C313" s="16">
@@ -7944,11 +7632,10 @@
       <c r="G313" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H313" s="44"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="27"/>
-      <c r="B314" s="34">
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="37"/>
+      <c r="B314" s="26">
         <v>13</v>
       </c>
       <c r="C314" s="16">
@@ -7966,11 +7653,10 @@
       <c r="G314" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H314" s="44"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="27"/>
-      <c r="B315" s="34">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="37"/>
+      <c r="B315" s="26">
         <v>14</v>
       </c>
       <c r="C315" s="16">
@@ -7988,11 +7674,10 @@
       <c r="G315" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H315" s="44"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="27"/>
-      <c r="B316" s="34">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="37"/>
+      <c r="B316" s="26">
         <v>15</v>
       </c>
       <c r="C316" s="16">
@@ -8010,11 +7695,10 @@
       <c r="G316" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H316" s="44"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="27"/>
-      <c r="B317" s="34">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="37"/>
+      <c r="B317" s="26">
         <v>16</v>
       </c>
       <c r="C317" s="16">
@@ -8032,11 +7716,10 @@
       <c r="G317" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H317" s="44"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" s="27"/>
-      <c r="B318" s="34">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="37"/>
+      <c r="B318" s="26">
         <v>17</v>
       </c>
       <c r="C318" s="16">
@@ -8054,11 +7737,10 @@
       <c r="G318" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H318" s="44"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="27"/>
-      <c r="B319" s="34">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="37"/>
+      <c r="B319" s="26">
         <v>18</v>
       </c>
       <c r="C319" s="16">
@@ -8076,11 +7758,10 @@
       <c r="G319" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H319" s="44"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="27"/>
-      <c r="B320" s="34">
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="37"/>
+      <c r="B320" s="26">
         <v>19</v>
       </c>
       <c r="C320" s="16">
@@ -8098,11 +7779,10 @@
       <c r="G320" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H320" s="44"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321" s="27"/>
-      <c r="B321" s="34">
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="37"/>
+      <c r="B321" s="26">
         <v>20</v>
       </c>
       <c r="C321" s="16">
@@ -8120,11 +7800,10 @@
       <c r="G321" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H321" s="44"/>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322" s="27"/>
-      <c r="B322" s="34">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="37"/>
+      <c r="B322" s="26">
         <v>21</v>
       </c>
       <c r="C322" s="16">
@@ -8142,11 +7821,10 @@
       <c r="G322" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H322" s="44"/>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" s="27"/>
-      <c r="B323" s="34">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="37"/>
+      <c r="B323" s="26">
         <v>22</v>
       </c>
       <c r="C323" s="16">
@@ -8164,11 +7842,10 @@
       <c r="G323" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H323" s="44"/>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="27"/>
-      <c r="B324" s="34">
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="37"/>
+      <c r="B324" s="26">
         <v>23</v>
       </c>
       <c r="C324" s="16">
@@ -8186,11 +7863,10 @@
       <c r="G324" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H324" s="44"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="27"/>
-      <c r="B325" s="34">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="37"/>
+      <c r="B325" s="26">
         <v>24</v>
       </c>
       <c r="C325" s="16">
@@ -8208,11 +7884,10 @@
       <c r="G325" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H325" s="44"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="27"/>
-      <c r="B326" s="34">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="37"/>
+      <c r="B326" s="26">
         <v>25</v>
       </c>
       <c r="C326" s="16">
@@ -8230,11 +7905,10 @@
       <c r="G326" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H326" s="44"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="27"/>
-      <c r="B327" s="34">
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="37"/>
+      <c r="B327" s="26">
         <v>26</v>
       </c>
       <c r="C327" s="16">
@@ -8243,7 +7917,7 @@
       <c r="D327" s="1">
         <v>-1.4469999999999999E-3</v>
       </c>
-      <c r="E327" s="24">
+      <c r="E327" s="23">
         <v>4.6709760000000002E-4</v>
       </c>
       <c r="F327" s="1">
@@ -8252,11 +7926,10 @@
       <c r="G327" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H327" s="44"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" s="27"/>
-      <c r="B328" s="34">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="37"/>
+      <c r="B328" s="26">
         <v>27</v>
       </c>
       <c r="C328" s="16">
@@ -8265,7 +7938,7 @@
       <c r="D328" s="1">
         <v>4.202E-3</v>
       </c>
-      <c r="E328" s="24">
+      <c r="E328" s="23">
         <v>5.9362300000000005E-4</v>
       </c>
       <c r="F328" s="1">
@@ -8274,11 +7947,10 @@
       <c r="G328" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H328" s="44"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="27"/>
-      <c r="B329" s="34">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="37"/>
+      <c r="B329" s="26">
         <v>28</v>
       </c>
       <c r="C329" s="16">
@@ -8287,7 +7959,7 @@
       <c r="D329" s="1">
         <v>-3.3800000000000002E-3</v>
       </c>
-      <c r="E329" s="24">
+      <c r="E329" s="23">
         <v>4.7310119999999998E-4</v>
       </c>
       <c r="F329" s="1">
@@ -8296,11 +7968,10 @@
       <c r="G329" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H329" s="44"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="27"/>
-      <c r="B330" s="34">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="37"/>
+      <c r="B330" s="26">
         <v>29</v>
       </c>
       <c r="C330" s="16">
@@ -8309,7 +7980,7 @@
       <c r="D330" s="1">
         <v>-8.2059999999999998E-3</v>
       </c>
-      <c r="E330" s="24">
+      <c r="E330" s="23">
         <v>2.144193E-3</v>
       </c>
       <c r="F330" s="1">
@@ -8318,11 +7989,10 @@
       <c r="G330" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H330" s="44"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" s="27"/>
-      <c r="B331" s="34">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="37"/>
+      <c r="B331" s="26">
         <v>30</v>
       </c>
       <c r="C331" s="16">
@@ -8331,7 +8001,7 @@
       <c r="D331" s="1">
         <v>1.565E-3</v>
       </c>
-      <c r="E331" s="24">
+      <c r="E331" s="23">
         <v>2.7624350000000003E-4</v>
       </c>
       <c r="F331" s="1">
@@ -8340,11 +8010,10 @@
       <c r="G331" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H331" s="44"/>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="27"/>
-      <c r="B332" s="34">
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="37"/>
+      <c r="B332" s="26">
         <v>31</v>
       </c>
       <c r="C332" s="16">
@@ -8353,7 +8022,7 @@
       <c r="D332" s="1">
         <v>-8.6200000000000003E-4</v>
       </c>
-      <c r="E332" s="24">
+      <c r="E332" s="23">
         <v>1.5487630000000001E-3</v>
       </c>
       <c r="F332" s="1">
@@ -8362,11 +8031,10 @@
       <c r="G332" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H332" s="44"/>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="27"/>
-      <c r="B333" s="34">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="37"/>
+      <c r="B333" s="26">
         <v>32</v>
       </c>
       <c r="C333" s="16">
@@ -8375,7 +8043,7 @@
       <c r="D333" s="1">
         <v>5.9049999999999997E-3</v>
       </c>
-      <c r="E333" s="24">
+      <c r="E333" s="23">
         <v>1.1136259999999999E-3</v>
       </c>
       <c r="F333" s="1">
@@ -8384,11 +8052,10 @@
       <c r="G333" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H333" s="44"/>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="27"/>
-      <c r="B334" s="34">
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="37"/>
+      <c r="B334" s="26">
         <v>33</v>
       </c>
       <c r="C334" s="16">
@@ -8397,7 +8064,7 @@
       <c r="D334" s="1">
         <v>1.8890000000000001E-3</v>
       </c>
-      <c r="E334" s="24">
+      <c r="E334" s="23">
         <v>3.340808E-4</v>
       </c>
       <c r="F334" s="1">
@@ -8406,11 +8073,10 @@
       <c r="G334" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H334" s="44"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="27"/>
-      <c r="B335" s="34">
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="37"/>
+      <c r="B335" s="26">
         <v>34</v>
       </c>
       <c r="C335" s="16">
@@ -8419,7 +8085,7 @@
       <c r="D335" s="1">
         <v>4.0670000000000003E-3</v>
       </c>
-      <c r="E335" s="24">
+      <c r="E335" s="23">
         <v>8.1761259999999999E-4</v>
       </c>
       <c r="F335" s="1">
@@ -8428,11 +8094,10 @@
       <c r="G335" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H335" s="44"/>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="27"/>
-      <c r="B336" s="34">
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="37"/>
+      <c r="B336" s="26">
         <v>35</v>
       </c>
       <c r="C336" s="16">
@@ -8441,7 +8106,7 @@
       <c r="D336" s="1">
         <v>-4.3990000000000001E-3</v>
       </c>
-      <c r="E336" s="24">
+      <c r="E336" s="23">
         <v>6.1806510000000003E-4</v>
       </c>
       <c r="F336" s="1">
@@ -8450,11 +8115,10 @@
       <c r="G336" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H336" s="44"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" s="27"/>
-      <c r="B337" s="34">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="37"/>
+      <c r="B337" s="26">
         <v>36</v>
       </c>
       <c r="C337" s="16">
@@ -8463,7 +8127,7 @@
       <c r="D337" s="1">
         <v>1.663E-3</v>
       </c>
-      <c r="E337" s="24">
+      <c r="E337" s="23">
         <v>3.9131350000000002E-4</v>
       </c>
       <c r="F337" s="1">
@@ -8472,11 +8136,10 @@
       <c r="G337" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H337" s="44"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="27"/>
-      <c r="B338" s="34">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="37"/>
+      <c r="B338" s="26">
         <v>37</v>
       </c>
       <c r="C338" s="16">
@@ -8485,7 +8148,7 @@
       <c r="D338" s="1">
         <v>6.8599999999999998E-4</v>
       </c>
-      <c r="E338" s="24">
+      <c r="E338" s="23">
         <v>2.774951E-5</v>
       </c>
       <c r="F338" s="1">
@@ -8494,11 +8157,10 @@
       <c r="G338" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H338" s="44"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" s="27"/>
-      <c r="B339" s="34">
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="37"/>
+      <c r="B339" s="26">
         <v>38</v>
       </c>
       <c r="C339" s="16">
@@ -8507,7 +8169,7 @@
       <c r="D339" s="1">
         <v>2.395E-3</v>
       </c>
-      <c r="E339" s="24">
+      <c r="E339" s="23">
         <v>1.2631070000000001E-3</v>
       </c>
       <c r="F339" s="1">
@@ -8516,11 +8178,10 @@
       <c r="G339" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H339" s="44"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="27"/>
-      <c r="B340" s="34">
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="37"/>
+      <c r="B340" s="26">
         <v>39</v>
       </c>
       <c r="C340" s="16">
@@ -8529,7 +8190,7 @@
       <c r="D340" s="1">
         <v>-2.4420000000000002E-3</v>
       </c>
-      <c r="E340" s="24">
+      <c r="E340" s="23">
         <v>5.5211150000000005E-4</v>
       </c>
       <c r="F340" s="1">
@@ -8538,11 +8199,10 @@
       <c r="G340" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H340" s="44"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="27"/>
-      <c r="B341" s="34">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="37"/>
+      <c r="B341" s="26">
         <v>40</v>
       </c>
       <c r="C341" s="16">
@@ -8551,7 +8211,7 @@
       <c r="D341" s="1">
         <v>-1.8339999999999999E-3</v>
       </c>
-      <c r="E341" s="24">
+      <c r="E341" s="23">
         <v>3.3433019999999999E-4</v>
       </c>
       <c r="F341" s="1">
@@ -8560,11 +8220,10 @@
       <c r="G341" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H341" s="44"/>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" s="27"/>
-      <c r="B342" s="34">
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="37"/>
+      <c r="B342" s="26">
         <v>41</v>
       </c>
       <c r="C342" s="16">
@@ -8573,7 +8232,7 @@
       <c r="D342" s="1">
         <v>5.7700000000000004E-4</v>
       </c>
-      <c r="E342" s="24">
+      <c r="E342" s="23">
         <v>1.7444530000000001E-4</v>
       </c>
       <c r="F342" s="1">
@@ -8582,11 +8241,10 @@
       <c r="G342" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H342" s="44"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="27"/>
-      <c r="B343" s="34">
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="37"/>
+      <c r="B343" s="26">
         <v>42</v>
       </c>
       <c r="C343" s="16">
@@ -8595,7 +8253,7 @@
       <c r="D343" s="1">
         <v>7.5600000000000005E-4</v>
       </c>
-      <c r="E343" s="24">
+      <c r="E343" s="23">
         <v>5.0386859999999997E-4</v>
       </c>
       <c r="F343" s="1">
@@ -8604,11 +8262,10 @@
       <c r="G343" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H343" s="44"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="27"/>
-      <c r="B344" s="34">
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="37"/>
+      <c r="B344" s="26">
         <v>43</v>
       </c>
       <c r="C344" s="16">
@@ -8617,7 +8274,7 @@
       <c r="D344" s="1">
         <v>-6.3850000000000001E-3</v>
       </c>
-      <c r="E344" s="24">
+      <c r="E344" s="23">
         <v>2.7613049999999999E-3</v>
       </c>
       <c r="F344" s="1">
@@ -8626,11 +8283,10 @@
       <c r="G344" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H344" s="44"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="27"/>
-      <c r="B345" s="34">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="37"/>
+      <c r="B345" s="26">
         <v>44</v>
       </c>
       <c r="C345" s="16">
@@ -8639,7 +8295,7 @@
       <c r="D345" s="1">
         <v>-3.8319999999999999E-3</v>
       </c>
-      <c r="E345" s="24">
+      <c r="E345" s="23">
         <v>1.8140439999999999E-3</v>
       </c>
       <c r="F345" s="1">
@@ -8648,11 +8304,10 @@
       <c r="G345" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H345" s="44"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="27"/>
-      <c r="B346" s="34">
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="37"/>
+      <c r="B346" s="26">
         <v>45</v>
       </c>
       <c r="C346" s="16">
@@ -8661,7 +8316,7 @@
       <c r="D346" s="1">
         <v>-9.3120000000000008E-3</v>
       </c>
-      <c r="E346" s="24">
+      <c r="E346" s="23">
         <v>2.7922810000000002E-3</v>
       </c>
       <c r="F346" s="1">
@@ -8670,11 +8325,10 @@
       <c r="G346" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H346" s="44"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" s="27"/>
-      <c r="B347" s="34">
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="37"/>
+      <c r="B347" s="26">
         <v>46</v>
       </c>
       <c r="C347" s="16">
@@ -8683,7 +8337,7 @@
       <c r="D347" s="1">
         <v>-2.594E-3</v>
       </c>
-      <c r="E347" s="24">
+      <c r="E347" s="23">
         <v>5.6808019999999996E-4</v>
       </c>
       <c r="F347" s="1">
@@ -8692,11 +8346,10 @@
       <c r="G347" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H347" s="44"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348" s="27"/>
-      <c r="B348" s="34">
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="37"/>
+      <c r="B348" s="26">
         <v>47</v>
       </c>
       <c r="C348" s="16">
@@ -8705,7 +8358,7 @@
       <c r="D348" s="1">
         <v>-3.1000000000000001E-5</v>
       </c>
-      <c r="E348" s="24">
+      <c r="E348" s="23">
         <v>4.0582940000000002E-7</v>
       </c>
       <c r="F348" s="1">
@@ -8714,11 +8367,10 @@
       <c r="G348" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H348" s="44"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349" s="27"/>
-      <c r="B349" s="34">
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="37"/>
+      <c r="B349" s="26">
         <v>48</v>
       </c>
       <c r="C349" s="16">
@@ -8727,7 +8379,7 @@
       <c r="D349" s="1">
         <v>3.1519999999999999E-3</v>
       </c>
-      <c r="E349" s="24">
+      <c r="E349" s="23">
         <v>1.1808120000000001E-3</v>
       </c>
       <c r="F349" s="1">
@@ -8736,11 +8388,10 @@
       <c r="G349" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H349" s="44"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350" s="27"/>
-      <c r="B350" s="34">
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="37"/>
+      <c r="B350" s="26">
         <v>49</v>
       </c>
       <c r="C350" s="16">
@@ -8749,7 +8400,7 @@
       <c r="D350" s="1">
         <v>2.8570000000000002E-3</v>
       </c>
-      <c r="E350" s="24">
+      <c r="E350" s="23">
         <v>3.5792970000000002E-4</v>
       </c>
       <c r="F350" s="1">
@@ -8758,11 +8409,10 @@
       <c r="G350" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H350" s="44"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" s="27"/>
-      <c r="B351" s="34">
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="37"/>
+      <c r="B351" s="26">
         <v>50</v>
       </c>
       <c r="C351" s="16">
@@ -8771,7 +8421,7 @@
       <c r="D351" s="1">
         <v>-2.8869999999999998E-3</v>
       </c>
-      <c r="E351" s="24">
+      <c r="E351" s="23">
         <v>4.5189939999999999E-4</v>
       </c>
       <c r="F351" s="1">
@@ -8780,11 +8430,10 @@
       <c r="G351" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H351" s="44"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" s="27"/>
-      <c r="B352" s="34">
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="37"/>
+      <c r="B352" s="26">
         <v>51</v>
       </c>
       <c r="C352" s="16">
@@ -8802,11 +8451,10 @@
       <c r="G352" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H352" s="44"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="27"/>
-      <c r="B353" s="34">
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="37"/>
+      <c r="B353" s="26">
         <v>52</v>
       </c>
       <c r="C353" s="16">
@@ -8824,11 +8472,10 @@
       <c r="G353" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H353" s="44"/>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="27"/>
-      <c r="B354" s="34">
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="37"/>
+      <c r="B354" s="26">
         <v>53</v>
       </c>
       <c r="C354" s="16">
@@ -8846,11 +8493,10 @@
       <c r="G354" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H354" s="44"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="27"/>
-      <c r="B355" s="34">
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="37"/>
+      <c r="B355" s="26">
         <v>54</v>
       </c>
       <c r="C355" s="16">
@@ -8868,11 +8514,10 @@
       <c r="G355" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H355" s="44"/>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="27"/>
-      <c r="B356" s="34">
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="37"/>
+      <c r="B356" s="26">
         <v>55</v>
       </c>
       <c r="C356" s="16">
@@ -8890,11 +8535,10 @@
       <c r="G356" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H356" s="44"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="27"/>
-      <c r="B357" s="34">
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="37"/>
+      <c r="B357" s="26">
         <v>56</v>
       </c>
       <c r="C357" s="16">
@@ -8912,11 +8556,10 @@
       <c r="G357" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H357" s="44"/>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="27"/>
-      <c r="B358" s="34">
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="37"/>
+      <c r="B358" s="26">
         <v>57</v>
       </c>
       <c r="C358" s="16">
@@ -8934,11 +8577,10 @@
       <c r="G358" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H358" s="44"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="27"/>
-      <c r="B359" s="34">
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="37"/>
+      <c r="B359" s="26">
         <v>58</v>
       </c>
       <c r="C359" s="16">
@@ -8956,11 +8598,10 @@
       <c r="G359" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H359" s="44"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="27"/>
-      <c r="B360" s="34">
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="37"/>
+      <c r="B360" s="26">
         <v>59</v>
       </c>
       <c r="C360" s="16">
@@ -8978,11 +8619,10 @@
       <c r="G360" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H360" s="44"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="27"/>
-      <c r="B361" s="34">
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="37"/>
+      <c r="B361" s="26">
         <v>60</v>
       </c>
       <c r="C361" s="16">
@@ -9000,11 +8640,10 @@
       <c r="G361" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H361" s="44"/>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="27"/>
-      <c r="B362" s="34">
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="37"/>
+      <c r="B362" s="26">
         <v>61</v>
       </c>
       <c r="C362" s="16">
@@ -9022,11 +8661,10 @@
       <c r="G362" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H362" s="44"/>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="27"/>
-      <c r="B363" s="34">
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="37"/>
+      <c r="B363" s="26">
         <v>62</v>
       </c>
       <c r="C363" s="16">
@@ -9044,11 +8682,10 @@
       <c r="G363" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H363" s="44"/>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="27"/>
-      <c r="B364" s="34">
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="37"/>
+      <c r="B364" s="26">
         <v>63</v>
       </c>
       <c r="C364" s="16">
@@ -9066,11 +8703,10 @@
       <c r="G364" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H364" s="44"/>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="27"/>
-      <c r="B365" s="34">
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="37"/>
+      <c r="B365" s="26">
         <v>64</v>
       </c>
       <c r="C365" s="16">
@@ -9088,11 +8724,10 @@
       <c r="G365" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H365" s="44"/>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="27"/>
-      <c r="B366" s="34">
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="37"/>
+      <c r="B366" s="26">
         <v>65</v>
       </c>
       <c r="C366" s="16">
@@ -9110,11 +8745,10 @@
       <c r="G366" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H366" s="44"/>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="27"/>
-      <c r="B367" s="34">
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="37"/>
+      <c r="B367" s="26">
         <v>66</v>
       </c>
       <c r="C367" s="16">
@@ -9132,11 +8766,10 @@
       <c r="G367" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H367" s="44"/>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="27"/>
-      <c r="B368" s="34">
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="37"/>
+      <c r="B368" s="26">
         <v>67</v>
       </c>
       <c r="C368" s="16">
@@ -9154,11 +8787,10 @@
       <c r="G368" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H368" s="44"/>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A369" s="27"/>
-      <c r="B369" s="34">
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="37"/>
+      <c r="B369" s="26">
         <v>68</v>
       </c>
       <c r="C369" s="16">
@@ -9176,11 +8808,10 @@
       <c r="G369" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H369" s="44"/>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="27"/>
-      <c r="B370" s="34">
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="37"/>
+      <c r="B370" s="26">
         <v>69</v>
       </c>
       <c r="C370" s="16">
@@ -9198,11 +8829,10 @@
       <c r="G370" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H370" s="44"/>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A371" s="27"/>
-      <c r="B371" s="34">
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="37"/>
+      <c r="B371" s="26">
         <v>70</v>
       </c>
       <c r="C371" s="16">
@@ -9220,11 +8850,10 @@
       <c r="G371" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H371" s="44"/>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="27"/>
-      <c r="B372" s="34">
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="37"/>
+      <c r="B372" s="26">
         <v>71</v>
       </c>
       <c r="C372" s="16">
@@ -9242,11 +8871,10 @@
       <c r="G372" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H372" s="44"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="27"/>
-      <c r="B373" s="34">
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="37"/>
+      <c r="B373" s="26">
         <v>72</v>
       </c>
       <c r="C373" s="16">
@@ -9264,11 +8892,10 @@
       <c r="G373" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H373" s="44"/>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="27"/>
-      <c r="B374" s="34">
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="37"/>
+      <c r="B374" s="26">
         <v>73</v>
       </c>
       <c r="C374" s="16">
@@ -9286,11 +8913,10 @@
       <c r="G374" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H374" s="44"/>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375" s="27"/>
-      <c r="B375" s="34">
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="37"/>
+      <c r="B375" s="26">
         <v>74</v>
       </c>
       <c r="C375" s="16">
@@ -9308,11 +8934,10 @@
       <c r="G375" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H375" s="44"/>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="27"/>
-      <c r="B376" s="34">
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="37"/>
+      <c r="B376" s="26">
         <v>75</v>
       </c>
       <c r="C376" s="16">
@@ -9330,11 +8955,10 @@
       <c r="G376" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H376" s="44"/>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A377" s="27"/>
-      <c r="B377" s="34">
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="37"/>
+      <c r="B377" s="26">
         <v>76</v>
       </c>
       <c r="C377" s="16">
@@ -9352,11 +8976,10 @@
       <c r="G377" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H377" s="44"/>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A378" s="27"/>
-      <c r="B378" s="34">
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="37"/>
+      <c r="B378" s="26">
         <v>77</v>
       </c>
       <c r="C378" s="16">
@@ -9374,11 +8997,10 @@
       <c r="G378" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H378" s="44"/>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="27"/>
-      <c r="B379" s="34">
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="37"/>
+      <c r="B379" s="26">
         <v>78</v>
       </c>
       <c r="C379" s="16">
@@ -9396,11 +9018,10 @@
       <c r="G379" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H379" s="44"/>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380" s="27"/>
-      <c r="B380" s="34">
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="37"/>
+      <c r="B380" s="26">
         <v>79</v>
       </c>
       <c r="C380" s="16">
@@ -9418,11 +9039,10 @@
       <c r="G380" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H380" s="44"/>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" s="27"/>
-      <c r="B381" s="34">
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="37"/>
+      <c r="B381" s="26">
         <v>80</v>
       </c>
       <c r="C381" s="16">
@@ -9440,11 +9060,10 @@
       <c r="G381" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H381" s="44"/>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382" s="27"/>
-      <c r="B382" s="34">
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="37"/>
+      <c r="B382" s="26">
         <v>81</v>
       </c>
       <c r="C382" s="16">
@@ -9462,11 +9081,10 @@
       <c r="G382" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H382" s="44"/>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A383" s="27"/>
-      <c r="B383" s="34">
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="37"/>
+      <c r="B383" s="26">
         <v>82</v>
       </c>
       <c r="C383" s="16">
@@ -9484,11 +9102,10 @@
       <c r="G383" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H383" s="44"/>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384" s="27"/>
-      <c r="B384" s="34">
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="37"/>
+      <c r="B384" s="26">
         <v>83</v>
       </c>
       <c r="C384" s="16">
@@ -9506,11 +9123,10 @@
       <c r="G384" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H384" s="44"/>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385" s="27"/>
-      <c r="B385" s="34">
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="37"/>
+      <c r="B385" s="26">
         <v>84</v>
       </c>
       <c r="C385" s="16">
@@ -9528,11 +9144,10 @@
       <c r="G385" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H385" s="44"/>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="27"/>
-      <c r="B386" s="34">
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="37"/>
+      <c r="B386" s="26">
         <v>85</v>
       </c>
       <c r="C386" s="16">
@@ -9550,11 +9165,10 @@
       <c r="G386" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H386" s="44"/>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387" s="27"/>
-      <c r="B387" s="34">
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="37"/>
+      <c r="B387" s="26">
         <v>86</v>
       </c>
       <c r="C387" s="16">
@@ -9572,11 +9186,10 @@
       <c r="G387" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H387" s="44"/>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A388" s="27"/>
-      <c r="B388" s="34">
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="37"/>
+      <c r="B388" s="26">
         <v>87</v>
       </c>
       <c r="C388" s="16">
@@ -9594,11 +9207,10 @@
       <c r="G388" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H388" s="44"/>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A389" s="27"/>
-      <c r="B389" s="34">
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="37"/>
+      <c r="B389" s="26">
         <v>88</v>
       </c>
       <c r="C389" s="16">
@@ -9616,11 +9228,10 @@
       <c r="G389" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H389" s="44"/>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A390" s="27"/>
-      <c r="B390" s="34">
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="37"/>
+      <c r="B390" s="26">
         <v>89</v>
       </c>
       <c r="C390" s="16">
@@ -9638,11 +9249,10 @@
       <c r="G390" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H390" s="44"/>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A391" s="27"/>
-      <c r="B391" s="34">
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="37"/>
+      <c r="B391" s="26">
         <v>90</v>
       </c>
       <c r="C391" s="16">
@@ -9660,11 +9270,10 @@
       <c r="G391" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H391" s="44"/>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A392" s="27"/>
-      <c r="B392" s="34">
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="37"/>
+      <c r="B392" s="26">
         <v>91</v>
       </c>
       <c r="C392" s="16">
@@ -9682,11 +9291,10 @@
       <c r="G392" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H392" s="44"/>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A393" s="27"/>
-      <c r="B393" s="34">
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="37"/>
+      <c r="B393" s="26">
         <v>92</v>
       </c>
       <c r="C393" s="16">
@@ -9704,11 +9312,10 @@
       <c r="G393" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H393" s="44"/>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A394" s="27"/>
-      <c r="B394" s="34">
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="37"/>
+      <c r="B394" s="26">
         <v>93</v>
       </c>
       <c r="C394" s="16">
@@ -9726,11 +9333,10 @@
       <c r="G394" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H394" s="44"/>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A395" s="27"/>
-      <c r="B395" s="34">
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="37"/>
+      <c r="B395" s="26">
         <v>94</v>
       </c>
       <c r="C395" s="16">
@@ -9748,11 +9354,10 @@
       <c r="G395" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H395" s="44"/>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396" s="27"/>
-      <c r="B396" s="34">
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="37"/>
+      <c r="B396" s="26">
         <v>95</v>
       </c>
       <c r="C396" s="16">
@@ -9770,11 +9375,10 @@
       <c r="G396" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H396" s="44"/>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397" s="27"/>
-      <c r="B397" s="34">
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="37"/>
+      <c r="B397" s="26">
         <v>96</v>
       </c>
       <c r="C397" s="16">
@@ -9792,11 +9396,10 @@
       <c r="G397" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H397" s="44"/>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398" s="27"/>
-      <c r="B398" s="34">
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="37"/>
+      <c r="B398" s="26">
         <v>97</v>
       </c>
       <c r="C398" s="16">
@@ -9814,11 +9417,10 @@
       <c r="G398" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H398" s="44"/>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="27"/>
-      <c r="B399" s="34">
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="37"/>
+      <c r="B399" s="26">
         <v>98</v>
       </c>
       <c r="C399" s="16">
@@ -9836,11 +9438,10 @@
       <c r="G399" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H399" s="44"/>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400" s="27"/>
-      <c r="B400" s="34">
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="37"/>
+      <c r="B400" s="26">
         <v>99</v>
       </c>
       <c r="C400" s="16">
@@ -9858,11 +9459,10 @@
       <c r="G400" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H400" s="44"/>
-    </row>
-    <row r="401" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="28"/>
-      <c r="B401" s="35">
+    </row>
+    <row r="401" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="38"/>
+      <c r="B401" s="27">
         <v>100</v>
       </c>
       <c r="C401" s="16">
@@ -9880,13 +9480,12 @@
       <c r="G401" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H401" s="44"/>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="26">
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="36">
         <v>100</v>
       </c>
-      <c r="B402" s="33">
+      <c r="B402" s="25">
         <v>1</v>
       </c>
       <c r="C402" s="16">
@@ -9904,11 +9503,10 @@
       <c r="G402" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H402" s="44"/>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="27"/>
-      <c r="B403" s="34">
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="37"/>
+      <c r="B403" s="26">
         <v>2</v>
       </c>
       <c r="C403" s="16">
@@ -9926,11 +9524,10 @@
       <c r="G403" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H403" s="44"/>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A404" s="27"/>
-      <c r="B404" s="34">
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="37"/>
+      <c r="B404" s="26">
         <v>3</v>
       </c>
       <c r="C404" s="16">
@@ -9948,11 +9545,10 @@
       <c r="G404" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H404" s="44"/>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="27"/>
-      <c r="B405" s="34">
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="37"/>
+      <c r="B405" s="26">
         <v>4</v>
       </c>
       <c r="C405" s="16">
@@ -9970,11 +9566,10 @@
       <c r="G405" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H405" s="44"/>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406" s="27"/>
-      <c r="B406" s="34">
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="37"/>
+      <c r="B406" s="26">
         <v>5</v>
       </c>
       <c r="C406" s="16">
@@ -9992,11 +9587,10 @@
       <c r="G406" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H406" s="44"/>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A407" s="27"/>
-      <c r="B407" s="34">
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="37"/>
+      <c r="B407" s="26">
         <v>6</v>
       </c>
       <c r="C407" s="16">
@@ -10014,11 +9608,10 @@
       <c r="G407" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H407" s="44"/>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A408" s="27"/>
-      <c r="B408" s="34">
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="37"/>
+      <c r="B408" s="26">
         <v>7</v>
       </c>
       <c r="C408" s="16">
@@ -10036,11 +9629,10 @@
       <c r="G408" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H408" s="44"/>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A409" s="27"/>
-      <c r="B409" s="34">
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="37"/>
+      <c r="B409" s="26">
         <v>8</v>
       </c>
       <c r="C409" s="16">
@@ -10058,11 +9650,10 @@
       <c r="G409" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H409" s="44"/>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A410" s="27"/>
-      <c r="B410" s="34">
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="37"/>
+      <c r="B410" s="26">
         <v>9</v>
       </c>
       <c r="C410" s="16">
@@ -10080,11 +9671,10 @@
       <c r="G410" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H410" s="44"/>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A411" s="27"/>
-      <c r="B411" s="34">
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="37"/>
+      <c r="B411" s="26">
         <v>10</v>
       </c>
       <c r="C411" s="16">
@@ -10102,11 +9692,10 @@
       <c r="G411" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H411" s="44"/>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A412" s="27"/>
-      <c r="B412" s="34">
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="37"/>
+      <c r="B412" s="26">
         <v>11</v>
       </c>
       <c r="C412" s="16">
@@ -10124,11 +9713,10 @@
       <c r="G412" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H412" s="44"/>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413" s="27"/>
-      <c r="B413" s="34">
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="37"/>
+      <c r="B413" s="26">
         <v>12</v>
       </c>
       <c r="C413" s="16">
@@ -10146,11 +9734,10 @@
       <c r="G413" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H413" s="44"/>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A414" s="27"/>
-      <c r="B414" s="34">
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="37"/>
+      <c r="B414" s="26">
         <v>13</v>
       </c>
       <c r="C414" s="16">
@@ -10168,11 +9755,10 @@
       <c r="G414" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H414" s="44"/>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A415" s="27"/>
-      <c r="B415" s="34">
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="37"/>
+      <c r="B415" s="26">
         <v>14</v>
       </c>
       <c r="C415" s="16">
@@ -10190,11 +9776,10 @@
       <c r="G415" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H415" s="44"/>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416" s="27"/>
-      <c r="B416" s="34">
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="37"/>
+      <c r="B416" s="26">
         <v>15</v>
       </c>
       <c r="C416" s="16">
@@ -10212,11 +9797,10 @@
       <c r="G416" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H416" s="44"/>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A417" s="27"/>
-      <c r="B417" s="34">
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="37"/>
+      <c r="B417" s="26">
         <v>16</v>
       </c>
       <c r="C417" s="16">
@@ -10234,11 +9818,10 @@
       <c r="G417" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H417" s="44"/>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A418" s="27"/>
-      <c r="B418" s="34">
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="37"/>
+      <c r="B418" s="26">
         <v>17</v>
       </c>
       <c r="C418" s="16">
@@ -10256,11 +9839,10 @@
       <c r="G418" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H418" s="44"/>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A419" s="27"/>
-      <c r="B419" s="34">
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="37"/>
+      <c r="B419" s="26">
         <v>18</v>
       </c>
       <c r="C419" s="16">
@@ -10278,11 +9860,10 @@
       <c r="G419" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H419" s="44"/>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A420" s="27"/>
-      <c r="B420" s="34">
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="37"/>
+      <c r="B420" s="26">
         <v>19</v>
       </c>
       <c r="C420" s="16">
@@ -10300,11 +9881,10 @@
       <c r="G420" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H420" s="44"/>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A421" s="27"/>
-      <c r="B421" s="34">
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="37"/>
+      <c r="B421" s="26">
         <v>20</v>
       </c>
       <c r="C421" s="16">
@@ -10322,11 +9902,10 @@
       <c r="G421" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H421" s="44"/>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A422" s="27"/>
-      <c r="B422" s="34">
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="37"/>
+      <c r="B422" s="26">
         <v>21</v>
       </c>
       <c r="C422" s="16">
@@ -10344,11 +9923,10 @@
       <c r="G422" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H422" s="44"/>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A423" s="27"/>
-      <c r="B423" s="34">
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="37"/>
+      <c r="B423" s="26">
         <v>22</v>
       </c>
       <c r="C423" s="16">
@@ -10366,11 +9944,10 @@
       <c r="G423" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H423" s="44"/>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A424" s="27"/>
-      <c r="B424" s="34">
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="37"/>
+      <c r="B424" s="26">
         <v>23</v>
       </c>
       <c r="C424" s="16">
@@ -10388,11 +9965,10 @@
       <c r="G424" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H424" s="44"/>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A425" s="27"/>
-      <c r="B425" s="34">
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="37"/>
+      <c r="B425" s="26">
         <v>24</v>
       </c>
       <c r="C425" s="16">
@@ -10410,11 +9986,10 @@
       <c r="G425" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H425" s="44"/>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A426" s="27"/>
-      <c r="B426" s="34">
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="37"/>
+      <c r="B426" s="26">
         <v>25</v>
       </c>
       <c r="C426" s="16">
@@ -10432,11 +10007,10 @@
       <c r="G426" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H426" s="44"/>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A427" s="27"/>
-      <c r="B427" s="34">
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="37"/>
+      <c r="B427" s="26">
         <v>26</v>
       </c>
       <c r="C427" s="16">
@@ -10454,11 +10028,10 @@
       <c r="G427" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H427" s="44"/>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A428" s="27"/>
-      <c r="B428" s="34">
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="37"/>
+      <c r="B428" s="26">
         <v>27</v>
       </c>
       <c r="C428" s="16">
@@ -10476,11 +10049,10 @@
       <c r="G428" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H428" s="44"/>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A429" s="27"/>
-      <c r="B429" s="34">
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="37"/>
+      <c r="B429" s="26">
         <v>28</v>
       </c>
       <c r="C429" s="16">
@@ -10498,11 +10070,10 @@
       <c r="G429" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H429" s="44"/>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A430" s="27"/>
-      <c r="B430" s="34">
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="37"/>
+      <c r="B430" s="26">
         <v>29</v>
       </c>
       <c r="C430" s="16">
@@ -10520,11 +10091,10 @@
       <c r="G430" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H430" s="44"/>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A431" s="27"/>
-      <c r="B431" s="34">
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="37"/>
+      <c r="B431" s="26">
         <v>30</v>
       </c>
       <c r="C431" s="16">
@@ -10542,11 +10112,10 @@
       <c r="G431" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H431" s="44"/>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A432" s="27"/>
-      <c r="B432" s="34">
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="37"/>
+      <c r="B432" s="26">
         <v>31</v>
       </c>
       <c r="C432" s="16">
@@ -10564,11 +10133,10 @@
       <c r="G432" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H432" s="44"/>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A433" s="27"/>
-      <c r="B433" s="34">
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="37"/>
+      <c r="B433" s="26">
         <v>32</v>
       </c>
       <c r="C433" s="16">
@@ -10586,11 +10154,10 @@
       <c r="G433" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H433" s="44"/>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A434" s="27"/>
-      <c r="B434" s="34">
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="37"/>
+      <c r="B434" s="26">
         <v>33</v>
       </c>
       <c r="C434" s="16">
@@ -10608,11 +10175,10 @@
       <c r="G434" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H434" s="44"/>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A435" s="27"/>
-      <c r="B435" s="34">
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="37"/>
+      <c r="B435" s="26">
         <v>34</v>
       </c>
       <c r="C435" s="16">
@@ -10630,11 +10196,10 @@
       <c r="G435" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H435" s="44"/>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A436" s="27"/>
-      <c r="B436" s="34">
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="37"/>
+      <c r="B436" s="26">
         <v>35</v>
       </c>
       <c r="C436" s="16">
@@ -10652,11 +10217,10 @@
       <c r="G436" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H436" s="44"/>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A437" s="27"/>
-      <c r="B437" s="34">
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="37"/>
+      <c r="B437" s="26">
         <v>36</v>
       </c>
       <c r="C437" s="16">
@@ -10674,11 +10238,10 @@
       <c r="G437" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H437" s="44"/>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A438" s="27"/>
-      <c r="B438" s="34">
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="37"/>
+      <c r="B438" s="26">
         <v>37</v>
       </c>
       <c r="C438" s="16">
@@ -10696,11 +10259,10 @@
       <c r="G438" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H438" s="44"/>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A439" s="27"/>
-      <c r="B439" s="34">
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="37"/>
+      <c r="B439" s="26">
         <v>38</v>
       </c>
       <c r="C439" s="16">
@@ -10718,11 +10280,10 @@
       <c r="G439" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H439" s="44"/>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A440" s="27"/>
-      <c r="B440" s="34">
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="37"/>
+      <c r="B440" s="26">
         <v>39</v>
       </c>
       <c r="C440" s="16">
@@ -10740,11 +10301,10 @@
       <c r="G440" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H440" s="44"/>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A441" s="27"/>
-      <c r="B441" s="34">
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="37"/>
+      <c r="B441" s="26">
         <v>40</v>
       </c>
       <c r="C441" s="16">
@@ -10762,11 +10322,10 @@
       <c r="G441" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H441" s="44"/>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A442" s="27"/>
-      <c r="B442" s="34">
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="37"/>
+      <c r="B442" s="26">
         <v>41</v>
       </c>
       <c r="C442" s="16">
@@ -10784,11 +10343,10 @@
       <c r="G442" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H442" s="44"/>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A443" s="27"/>
-      <c r="B443" s="34">
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="37"/>
+      <c r="B443" s="26">
         <v>42</v>
       </c>
       <c r="C443" s="16">
@@ -10806,11 +10364,10 @@
       <c r="G443" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H443" s="44"/>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A444" s="27"/>
-      <c r="B444" s="34">
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="37"/>
+      <c r="B444" s="26">
         <v>43</v>
       </c>
       <c r="C444" s="16">
@@ -10828,11 +10385,10 @@
       <c r="G444" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H444" s="44"/>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A445" s="27"/>
-      <c r="B445" s="34">
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="37"/>
+      <c r="B445" s="26">
         <v>44</v>
       </c>
       <c r="C445" s="16">
@@ -10850,11 +10406,10 @@
       <c r="G445" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H445" s="44"/>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A446" s="27"/>
-      <c r="B446" s="34">
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="37"/>
+      <c r="B446" s="26">
         <v>45</v>
       </c>
       <c r="C446" s="16">
@@ -10872,11 +10427,10 @@
       <c r="G446" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H446" s="44"/>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A447" s="27"/>
-      <c r="B447" s="34">
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="37"/>
+      <c r="B447" s="26">
         <v>46</v>
       </c>
       <c r="C447" s="16">
@@ -10894,11 +10448,10 @@
       <c r="G447" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H447" s="44"/>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A448" s="27"/>
-      <c r="B448" s="34">
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="37"/>
+      <c r="B448" s="26">
         <v>47</v>
       </c>
       <c r="C448" s="16">
@@ -10916,11 +10469,10 @@
       <c r="G448" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H448" s="44"/>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A449" s="27"/>
-      <c r="B449" s="34">
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="37"/>
+      <c r="B449" s="26">
         <v>48</v>
       </c>
       <c r="C449" s="16">
@@ -10938,11 +10490,10 @@
       <c r="G449" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H449" s="44"/>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A450" s="27"/>
-      <c r="B450" s="34">
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="37"/>
+      <c r="B450" s="26">
         <v>49</v>
       </c>
       <c r="C450" s="16">
@@ -10960,11 +10511,10 @@
       <c r="G450" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H450" s="44"/>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A451" s="27"/>
-      <c r="B451" s="34">
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="37"/>
+      <c r="B451" s="26">
         <v>50</v>
       </c>
       <c r="C451" s="16">
@@ -10982,11 +10532,10 @@
       <c r="G451" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H451" s="44"/>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A452" s="27"/>
-      <c r="B452" s="34">
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="37"/>
+      <c r="B452" s="26">
         <v>51</v>
       </c>
       <c r="C452" s="16">
@@ -11004,11 +10553,10 @@
       <c r="G452" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H452" s="44"/>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A453" s="27"/>
-      <c r="B453" s="34">
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="37"/>
+      <c r="B453" s="26">
         <v>52</v>
       </c>
       <c r="C453" s="16">
@@ -11026,11 +10574,10 @@
       <c r="G453" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H453" s="44"/>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A454" s="27"/>
-      <c r="B454" s="34">
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="37"/>
+      <c r="B454" s="26">
         <v>53</v>
       </c>
       <c r="C454" s="16">
@@ -11048,11 +10595,10 @@
       <c r="G454" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H454" s="44"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A455" s="27"/>
-      <c r="B455" s="34">
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="37"/>
+      <c r="B455" s="26">
         <v>54</v>
       </c>
       <c r="C455" s="16">
@@ -11070,11 +10616,10 @@
       <c r="G455" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H455" s="44"/>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A456" s="27"/>
-      <c r="B456" s="34">
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="37"/>
+      <c r="B456" s="26">
         <v>55</v>
       </c>
       <c r="C456" s="16">
@@ -11092,11 +10637,10 @@
       <c r="G456" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H456" s="44"/>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A457" s="27"/>
-      <c r="B457" s="34">
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="37"/>
+      <c r="B457" s="26">
         <v>56</v>
       </c>
       <c r="C457" s="16">
@@ -11114,11 +10658,10 @@
       <c r="G457" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H457" s="44"/>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A458" s="27"/>
-      <c r="B458" s="34">
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="37"/>
+      <c r="B458" s="26">
         <v>57</v>
       </c>
       <c r="C458" s="16">
@@ -11136,11 +10679,10 @@
       <c r="G458" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H458" s="44"/>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A459" s="27"/>
-      <c r="B459" s="34">
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="37"/>
+      <c r="B459" s="26">
         <v>58</v>
       </c>
       <c r="C459" s="16">
@@ -11158,11 +10700,10 @@
       <c r="G459" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H459" s="44"/>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A460" s="27"/>
-      <c r="B460" s="34">
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="37"/>
+      <c r="B460" s="26">
         <v>59</v>
       </c>
       <c r="C460" s="16">
@@ -11180,11 +10721,10 @@
       <c r="G460" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H460" s="44"/>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A461" s="27"/>
-      <c r="B461" s="34">
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="37"/>
+      <c r="B461" s="26">
         <v>60</v>
       </c>
       <c r="C461" s="16">
@@ -11202,11 +10742,10 @@
       <c r="G461" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H461" s="44"/>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A462" s="27"/>
-      <c r="B462" s="34">
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="37"/>
+      <c r="B462" s="26">
         <v>61</v>
       </c>
       <c r="C462" s="16">
@@ -11224,11 +10763,10 @@
       <c r="G462" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H462" s="44"/>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A463" s="27"/>
-      <c r="B463" s="34">
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="37"/>
+      <c r="B463" s="26">
         <v>62</v>
       </c>
       <c r="C463" s="16">
@@ -11246,11 +10784,10 @@
       <c r="G463" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H463" s="44"/>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A464" s="27"/>
-      <c r="B464" s="34">
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="37"/>
+      <c r="B464" s="26">
         <v>63</v>
       </c>
       <c r="C464" s="16">
@@ -11268,11 +10805,10 @@
       <c r="G464" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H464" s="44"/>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A465" s="27"/>
-      <c r="B465" s="34">
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="37"/>
+      <c r="B465" s="26">
         <v>64</v>
       </c>
       <c r="C465" s="16">
@@ -11290,11 +10826,10 @@
       <c r="G465" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H465" s="44"/>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A466" s="27"/>
-      <c r="B466" s="34">
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="37"/>
+      <c r="B466" s="26">
         <v>65</v>
       </c>
       <c r="C466" s="16">
@@ -11312,11 +10847,10 @@
       <c r="G466" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H466" s="44"/>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A467" s="27"/>
-      <c r="B467" s="34">
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="37"/>
+      <c r="B467" s="26">
         <v>66</v>
       </c>
       <c r="C467" s="16">
@@ -11334,11 +10868,10 @@
       <c r="G467" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H467" s="44"/>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A468" s="27"/>
-      <c r="B468" s="34">
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="37"/>
+      <c r="B468" s="26">
         <v>67</v>
       </c>
       <c r="C468" s="16">
@@ -11356,11 +10889,10 @@
       <c r="G468" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H468" s="44"/>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A469" s="27"/>
-      <c r="B469" s="34">
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="37"/>
+      <c r="B469" s="26">
         <v>68</v>
       </c>
       <c r="C469" s="16">
@@ -11378,11 +10910,10 @@
       <c r="G469" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H469" s="44"/>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A470" s="27"/>
-      <c r="B470" s="34">
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="37"/>
+      <c r="B470" s="26">
         <v>69</v>
       </c>
       <c r="C470" s="16">
@@ -11400,11 +10931,10 @@
       <c r="G470" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H470" s="44"/>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A471" s="27"/>
-      <c r="B471" s="34">
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="37"/>
+      <c r="B471" s="26">
         <v>70</v>
       </c>
       <c r="C471" s="16">
@@ -11422,11 +10952,10 @@
       <c r="G471" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H471" s="44"/>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A472" s="27"/>
-      <c r="B472" s="34">
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="37"/>
+      <c r="B472" s="26">
         <v>71</v>
       </c>
       <c r="C472" s="16">
@@ -11444,11 +10973,10 @@
       <c r="G472" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H472" s="44"/>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A473" s="27"/>
-      <c r="B473" s="34">
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="37"/>
+      <c r="B473" s="26">
         <v>72</v>
       </c>
       <c r="C473" s="16">
@@ -11466,11 +10994,10 @@
       <c r="G473" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H473" s="44"/>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A474" s="27"/>
-      <c r="B474" s="34">
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="37"/>
+      <c r="B474" s="26">
         <v>73</v>
       </c>
       <c r="C474" s="16">
@@ -11488,11 +11015,10 @@
       <c r="G474" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H474" s="44"/>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A475" s="27"/>
-      <c r="B475" s="34">
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="37"/>
+      <c r="B475" s="26">
         <v>74</v>
       </c>
       <c r="C475" s="16">
@@ -11510,11 +11036,10 @@
       <c r="G475" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H475" s="44"/>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A476" s="27"/>
-      <c r="B476" s="34">
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="37"/>
+      <c r="B476" s="26">
         <v>75</v>
       </c>
       <c r="C476" s="16">
@@ -11532,11 +11057,10 @@
       <c r="G476" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H476" s="44"/>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A477" s="27"/>
-      <c r="B477" s="34">
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="37"/>
+      <c r="B477" s="26">
         <v>76</v>
       </c>
       <c r="C477" s="16">
@@ -11554,11 +11078,10 @@
       <c r="G477" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H477" s="44"/>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A478" s="27"/>
-      <c r="B478" s="34">
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="37"/>
+      <c r="B478" s="26">
         <v>77</v>
       </c>
       <c r="C478" s="16">
@@ -11576,11 +11099,10 @@
       <c r="G478" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H478" s="44"/>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A479" s="27"/>
-      <c r="B479" s="34">
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="37"/>
+      <c r="B479" s="26">
         <v>78</v>
       </c>
       <c r="C479" s="16">
@@ -11598,11 +11120,10 @@
       <c r="G479" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H479" s="44"/>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A480" s="27"/>
-      <c r="B480" s="34">
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="37"/>
+      <c r="B480" s="26">
         <v>79</v>
       </c>
       <c r="C480" s="16">
@@ -11620,11 +11141,10 @@
       <c r="G480" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H480" s="44"/>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A481" s="27"/>
-      <c r="B481" s="34">
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="37"/>
+      <c r="B481" s="26">
         <v>80</v>
       </c>
       <c r="C481" s="16">
@@ -11642,11 +11162,10 @@
       <c r="G481" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H481" s="44"/>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482" s="27"/>
-      <c r="B482" s="34">
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" s="37"/>
+      <c r="B482" s="26">
         <v>81</v>
       </c>
       <c r="C482" s="16">
@@ -11664,11 +11183,10 @@
       <c r="G482" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H482" s="44"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A483" s="27"/>
-      <c r="B483" s="34">
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" s="37"/>
+      <c r="B483" s="26">
         <v>82</v>
       </c>
       <c r="C483" s="16">
@@ -11686,11 +11204,10 @@
       <c r="G483" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H483" s="44"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A484" s="27"/>
-      <c r="B484" s="34">
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="37"/>
+      <c r="B484" s="26">
         <v>83</v>
       </c>
       <c r="C484" s="16">
@@ -11708,11 +11225,10 @@
       <c r="G484" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H484" s="44"/>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A485" s="27"/>
-      <c r="B485" s="34">
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="37"/>
+      <c r="B485" s="26">
         <v>84</v>
       </c>
       <c r="C485" s="16">
@@ -11730,11 +11246,10 @@
       <c r="G485" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H485" s="44"/>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A486" s="27"/>
-      <c r="B486" s="34">
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="37"/>
+      <c r="B486" s="26">
         <v>85</v>
       </c>
       <c r="C486" s="16">
@@ -11752,11 +11267,10 @@
       <c r="G486" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H486" s="44"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A487" s="27"/>
-      <c r="B487" s="34">
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="37"/>
+      <c r="B487" s="26">
         <v>86</v>
       </c>
       <c r="C487" s="16">
@@ -11774,11 +11288,10 @@
       <c r="G487" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H487" s="44"/>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A488" s="27"/>
-      <c r="B488" s="34">
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" s="37"/>
+      <c r="B488" s="26">
         <v>87</v>
       </c>
       <c r="C488" s="16">
@@ -11796,11 +11309,10 @@
       <c r="G488" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H488" s="44"/>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A489" s="27"/>
-      <c r="B489" s="34">
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" s="37"/>
+      <c r="B489" s="26">
         <v>88</v>
       </c>
       <c r="C489" s="16">
@@ -11818,11 +11330,10 @@
       <c r="G489" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H489" s="44"/>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A490" s="27"/>
-      <c r="B490" s="34">
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" s="37"/>
+      <c r="B490" s="26">
         <v>89</v>
       </c>
       <c r="C490" s="16">
@@ -11840,11 +11351,10 @@
       <c r="G490" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H490" s="44"/>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A491" s="27"/>
-      <c r="B491" s="34">
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" s="37"/>
+      <c r="B491" s="26">
         <v>90</v>
       </c>
       <c r="C491" s="16">
@@ -11862,11 +11372,10 @@
       <c r="G491" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H491" s="44"/>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A492" s="27"/>
-      <c r="B492" s="34">
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" s="37"/>
+      <c r="B492" s="26">
         <v>91</v>
       </c>
       <c r="C492" s="16">
@@ -11884,11 +11393,10 @@
       <c r="G492" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H492" s="44"/>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A493" s="27"/>
-      <c r="B493" s="34">
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" s="37"/>
+      <c r="B493" s="26">
         <v>92</v>
       </c>
       <c r="C493" s="16">
@@ -11906,11 +11414,10 @@
       <c r="G493" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H493" s="44"/>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A494" s="27"/>
-      <c r="B494" s="34">
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" s="37"/>
+      <c r="B494" s="26">
         <v>93</v>
       </c>
       <c r="C494" s="16">
@@ -11928,11 +11435,10 @@
       <c r="G494" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H494" s="44"/>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A495" s="27"/>
-      <c r="B495" s="34">
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" s="37"/>
+      <c r="B495" s="26">
         <v>94</v>
       </c>
       <c r="C495" s="16">
@@ -11950,11 +11456,10 @@
       <c r="G495" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H495" s="44"/>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A496" s="27"/>
-      <c r="B496" s="34">
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" s="37"/>
+      <c r="B496" s="26">
         <v>95</v>
       </c>
       <c r="C496" s="16">
@@ -11972,11 +11477,10 @@
       <c r="G496" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H496" s="44"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" s="27"/>
-      <c r="B497" s="34">
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="37"/>
+      <c r="B497" s="26">
         <v>96</v>
       </c>
       <c r="C497" s="16">
@@ -11994,11 +11498,10 @@
       <c r="G497" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H497" s="44"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" s="27"/>
-      <c r="B498" s="34">
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="37"/>
+      <c r="B498" s="26">
         <v>97</v>
       </c>
       <c r="C498" s="16">
@@ -12016,11 +11519,10 @@
       <c r="G498" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H498" s="44"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A499" s="27"/>
-      <c r="B499" s="34">
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="37"/>
+      <c r="B499" s="26">
         <v>98</v>
       </c>
       <c r="C499" s="16">
@@ -12038,11 +11540,10 @@
       <c r="G499" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H499" s="44"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A500" s="27"/>
-      <c r="B500" s="34">
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="37"/>
+      <c r="B500" s="26">
         <v>99</v>
       </c>
       <c r="C500" s="16">
@@ -12060,11 +11561,10 @@
       <c r="G500" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H500" s="44"/>
-    </row>
-    <row r="501" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="28"/>
-      <c r="B501" s="35">
+    </row>
+    <row r="501" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="38"/>
+      <c r="B501" s="27">
         <v>100</v>
       </c>
       <c r="C501" s="18">
@@ -12082,7 +11582,6 @@
       <c r="G501" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H501" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12131,10 +11630,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="30">
         <v>0.01</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>1.8E-5</v>
       </c>
       <c r="C2" s="5">
@@ -12151,7 +11650,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="31">
         <v>0.1</v>
       </c>
       <c r="B3" s="16">
@@ -12171,7 +11670,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
       <c r="B4" s="16">
@@ -12191,7 +11690,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="31">
         <v>10</v>
       </c>
       <c r="B5" s="16">
@@ -12211,7 +11710,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="A6" s="32">
         <v>100</v>
       </c>
       <c r="B6" s="18">
@@ -12241,7 +11740,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12250,7 +11749,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -12264,10 +11763,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="14">
+        <v>1.50521412</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2.5088359900000001</v>
+      </c>
+      <c r="C2" s="43">
+        <v>1.9349548292614101E-6</v>
+      </c>
+      <c r="D2" s="15">
+        <v>3340</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12289,35 +11796,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>0</v>
       </c>
       <c r="B3" s="5">
@@ -12337,7 +11844,7 @@
       <c r="A4" s="16">
         <v>0.1</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>1.6291699999999999E-5</v>
       </c>
       <c r="C4" s="1">
